--- a/tools/data/mygameConfig.xlsx
+++ b/tools/data/mygameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="805" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="805" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="goods" sheetId="1" r:id="rId1"/>
@@ -9033,9 +9033,6 @@
     <t>WECHAT_END_ID</t>
   </si>
   <si>
-    <t>功能ID（1:背包；2：电话；3：短信；4：工作；5：签到；6：商城；7：视频库；8：微博：9：邮件）</t>
-  </si>
-  <si>
     <t>FUNCTION_ID</t>
   </si>
   <si>
@@ -11820,6 +11817,10 @@
   </si>
   <si>
     <t>相应功能未开启。</t>
+  </si>
+  <si>
+    <t>功能ID（1:背包；2：电话；3：短信；4：工作；5：签到；6：商城；7：视频库；8：微博：9：邮件）</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12382,7 +12383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12685,6 +12686,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -35967,7 +35971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
@@ -35978,8 +35984,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="59.1" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>2936</v>
+      <c r="A1" s="105" t="s">
+        <v>3772</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2068</v>
@@ -35990,10 +35996,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>2937</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>2938</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -36026,7 +36032,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -36129,7 +36135,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -36137,13 +36143,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>2940</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>2941</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2942</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -36153,7 +36159,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -36166,7 +36172,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -36179,7 +36185,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -36190,7 +36196,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -36201,7 +36207,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -36212,7 +36218,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -36223,7 +36229,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -36234,7 +36240,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -36245,7 +36251,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -36256,7 +36262,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -36267,7 +36273,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -36278,7 +36284,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -36289,7 +36295,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -36300,7 +36306,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -36311,7 +36317,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -36322,7 +36328,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -36333,7 +36339,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -36382,31 +36388,31 @@
         <v>138</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>2960</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>2961</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>2962</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="18" t="s">
         <v>2963</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>2964</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>2965</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="10" t="s">
         <v>2966</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>2967</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>2968</v>
       </c>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
@@ -36419,37 +36425,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>2969</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>2970</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>2971</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>2972</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>2973</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>2974</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>2975</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>2976</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="10" t="s">
         <v>2977</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="19" t="s">
         <v>2978</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>2979</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
@@ -36465,7 +36471,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="D3" s="20">
         <v>1</v>
@@ -36482,7 +36488,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="K3" s="20">
         <v>1</v>
@@ -36504,7 +36510,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -36519,7 +36525,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="K4" s="20">
         <v>1</v>
@@ -36541,7 +36547,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="D5" s="20">
         <v>2</v>
@@ -36558,7 +36564,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="K5" s="20">
         <v>2</v>
@@ -36580,7 +36586,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="D6" s="20">
         <v>3</v>
@@ -36597,7 +36603,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="K6" s="20">
         <v>2</v>
@@ -36619,7 +36625,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -36634,7 +36640,7 @@
         <v>32</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="K7" s="20">
         <v>3</v>
@@ -36656,7 +36662,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -36671,7 +36677,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="K8" s="20">
         <v>3</v>
@@ -36693,7 +36699,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D9" s="13">
         <v>4</v>
@@ -36710,7 +36716,7 @@
         <v>41</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="K9" s="20">
         <v>4</v>
@@ -36732,7 +36738,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -36747,7 +36753,7 @@
         <v>47</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="K10" s="20">
         <v>4</v>
@@ -36769,7 +36775,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -36784,7 +36790,7 @@
         <v>52</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K11" s="20">
         <v>5</v>
@@ -36806,7 +36812,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="D12" s="13">
         <v>5</v>
@@ -36823,7 +36829,7 @@
         <v>57</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="K12" s="20">
         <v>5</v>
@@ -36845,7 +36851,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -36860,7 +36866,7 @@
         <v>63</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="K13" s="20">
         <v>6</v>
@@ -36882,7 +36888,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D14" s="13">
         <v>6</v>
@@ -36899,7 +36905,7 @@
         <v>69</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="K14" s="20">
         <v>6</v>
@@ -36921,7 +36927,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -36936,7 +36942,7 @@
         <v>75</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="K15" s="20">
         <v>7</v>
@@ -36958,7 +36964,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -36973,7 +36979,7 @@
         <v>81</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="K16" s="20">
         <v>8</v>
@@ -36995,7 +37001,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="D17" s="13">
         <v>7</v>
@@ -37012,7 +37018,7 @@
         <v>88</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="K17" s="20">
         <v>9</v>
@@ -37034,7 +37040,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="D18" s="13">
         <v>8</v>
@@ -37051,7 +37057,7 @@
         <v>94</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="K18" s="20">
         <v>12</v>
@@ -37073,7 +37079,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -37088,7 +37094,7 @@
         <v>101</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="K19" s="20">
         <v>15</v>
@@ -37110,7 +37116,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="D20" s="13">
         <v>9</v>
@@ -37127,7 +37133,7 @@
         <v>108</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="K20" s="20">
         <v>18</v>
@@ -37149,7 +37155,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="D21" s="13">
         <v>10</v>
@@ -37166,7 +37172,7 @@
         <v>115</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="K21" s="20">
         <v>21</v>
@@ -37188,7 +37194,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -37203,7 +37209,7 @@
         <v>123</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="K22" s="20">
         <v>24</v>
@@ -37225,7 +37231,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -37240,7 +37246,7 @@
         <v>130</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="K23" s="20">
         <v>27</v>
@@ -37262,7 +37268,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="D24" s="13">
         <v>11</v>
@@ -37279,7 +37285,7 @@
         <v>138</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="K24" s="20">
         <v>30</v>
@@ -37301,7 +37307,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -37316,7 +37322,7 @@
         <v>145</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="K25" s="20">
         <v>33</v>
@@ -37338,7 +37344,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -37353,7 +37359,7 @@
         <v>153</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="K26" s="20">
         <v>36</v>
@@ -37375,7 +37381,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="D27" s="13">
         <v>12</v>
@@ -37392,7 +37398,7 @@
         <v>161</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="K27" s="20">
         <v>39</v>
@@ -37414,7 +37420,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -37429,7 +37435,7 @@
         <v>169</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="K28" s="20">
         <v>39</v>
@@ -37451,7 +37457,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="D29" s="13">
         <v>13</v>
@@ -37468,7 +37474,7 @@
         <v>178</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="K29" s="20">
         <v>39</v>
@@ -37490,7 +37496,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="D30" s="13">
         <v>14</v>
@@ -37507,7 +37513,7 @@
         <v>186</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="K30" s="20">
         <v>39</v>
@@ -37529,7 +37535,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -37544,7 +37550,7 @@
         <v>195</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="K31" s="20">
         <v>39</v>
@@ -37566,7 +37572,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="D32" s="13">
         <v>15</v>
@@ -37583,7 +37589,7 @@
         <v>203</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="K32" s="20">
         <v>39</v>
@@ -37605,7 +37611,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -37620,7 +37626,7 @@
         <v>212</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="K33" s="20">
         <v>40</v>
@@ -37642,7 +37648,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="D34" s="13">
         <v>16</v>
@@ -37659,7 +37665,7 @@
         <v>221</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="K34" s="20">
         <v>40</v>
@@ -37681,7 +37687,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="D35" s="13">
         <v>17</v>
@@ -37698,7 +37704,7 @@
         <v>230</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="K35" s="20">
         <v>40</v>
@@ -37720,7 +37726,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -37735,7 +37741,7 @@
         <v>239</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="K36" s="20">
         <v>40</v>
@@ -37757,7 +37763,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -37772,7 +37778,7 @@
         <v>249</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="K37" s="20">
         <v>40</v>
@@ -37794,7 +37800,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D38" s="13">
         <v>18</v>
@@ -37811,7 +37817,7 @@
         <v>258</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="K38" s="20">
         <v>43</v>
@@ -37833,7 +37839,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D39" s="13">
         <v>19</v>
@@ -37850,7 +37856,7 @@
         <v>268</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="K39" s="20">
         <v>46</v>
@@ -37872,7 +37878,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -37887,7 +37893,7 @@
         <v>277</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="K40" s="20">
         <v>49</v>
@@ -37909,7 +37915,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D41" s="13">
         <v>20</v>
@@ -37926,7 +37932,7 @@
         <v>287</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="K41" s="20">
         <v>52</v>
@@ -37948,7 +37954,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D42" s="13">
         <v>21</v>
@@ -37965,7 +37971,7 @@
         <v>297</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="K42" s="20">
         <v>54</v>
@@ -37987,7 +37993,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -38002,7 +38008,7 @@
         <v>307</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="K43" s="20">
         <v>57</v>
@@ -38024,7 +38030,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D44" s="13">
         <v>22</v>
@@ -38041,7 +38047,7 @@
         <v>317</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="K44" s="20">
         <v>60</v>
@@ -38063,7 +38069,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D45" s="13">
         <v>23</v>
@@ -38080,7 +38086,7 @@
         <v>327</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="K45" s="20">
         <v>63</v>
@@ -38102,7 +38108,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D46" s="13">
         <v>24</v>
@@ -38119,7 +38125,7 @@
         <v>338</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="K46" s="20">
         <v>66</v>
@@ -38141,7 +38147,7 @@
         <v>49</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -38156,7 +38162,7 @@
         <v>348</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="K47" s="20">
         <v>69</v>
@@ -38205,16 +38211,16 @@
         <v>70</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>3070</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3071</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>138</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.95" customHeight="1">
@@ -38222,19 +38228,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>3073</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>3074</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>3075</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>3076</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>3077</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1">
@@ -38246,13 +38252,13 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>3078</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>3079</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3080</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.95" customHeight="1">
@@ -38264,13 +38270,13 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>3081</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>3082</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>3083</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1">
@@ -38282,13 +38288,13 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16" t="s">
+        <v>3083</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>3084</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>3085</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>3086</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.95" customHeight="1">
@@ -38300,10 +38306,10 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -38318,10 +38324,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>3088</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>3089</v>
       </c>
       <c r="F7" s="17"/>
     </row>
@@ -38334,13 +38340,13 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>3089</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>3090</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>3091</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.95" customHeight="1">
@@ -38352,13 +38358,13 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16" t="s">
+        <v>3091</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>3092</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>3093</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>3094</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.95" customHeight="1">
@@ -38370,13 +38376,13 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>3095</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>3096</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.95" customHeight="1">
@@ -38390,13 +38396,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>3097</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>3098</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>3099</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.95" customHeight="1">
@@ -38410,13 +38416,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>3100</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>3101</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>3102</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.95" customHeight="1">
@@ -38428,13 +38434,13 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E13" s="17" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>3103</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>3104</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.95" customHeight="1">
@@ -38446,13 +38452,13 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>3105</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>3106</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>3107</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.95" customHeight="1">
@@ -38464,13 +38470,13 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>3108</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>3109</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>3110</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.95" customHeight="1">
@@ -38482,13 +38488,13 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E16" s="17" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>3109</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>3110</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.95" customHeight="1">
@@ -38500,13 +38506,13 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E17" s="17" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>3109</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>3110</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.95" customHeight="1">
@@ -38518,13 +38524,13 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E18" s="17" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>3112</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>3113</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.95" customHeight="1">
@@ -38536,13 +38542,13 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E19" s="17" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>3114</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.95" customHeight="1">
@@ -38554,10 +38560,10 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -38572,10 +38578,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="F21" s="17"/>
     </row>
@@ -38588,13 +38594,13 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E22" s="17" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>3118</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>3119</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.95" customHeight="1">
@@ -38606,13 +38612,13 @@
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E23" s="17" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>3120</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>3121</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.95" customHeight="1">
@@ -38624,13 +38630,13 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E24" s="17" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>3122</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>3123</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.95" customHeight="1">
@@ -38644,13 +38650,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E25" s="17" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>3124</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>3125</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.95" customHeight="1">
@@ -38664,13 +38670,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E26" s="17" t="s">
+        <v>3125</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>3126</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>3127</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.95" customHeight="1">
@@ -38682,10 +38688,10 @@
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="F27" s="17"/>
     </row>
@@ -38698,13 +38704,13 @@
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E28" s="17" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>3129</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>3130</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.95" customHeight="1">
@@ -38716,13 +38722,13 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16" t="s">
+        <v>3130</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>3131</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="F29" s="17" t="s">
         <v>3132</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>3133</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.95" customHeight="1">
@@ -38734,13 +38740,13 @@
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E30" s="17" t="s">
+        <v>3133</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>3134</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>3135</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.95" customHeight="1">
@@ -38752,13 +38758,13 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E31" s="17" t="s">
+        <v>3135</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>3136</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>3137</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.95" customHeight="1">
@@ -38770,13 +38776,13 @@
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E32" s="17" t="s">
+        <v>3137</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>3138</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>3139</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.95" customHeight="1">
@@ -38788,13 +38794,13 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E33" s="17" t="s">
+        <v>3139</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>3140</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>3141</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.95" customHeight="1">
@@ -38808,13 +38814,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="E34" s="17" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>3142</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>3143</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.95" customHeight="1">
@@ -38826,13 +38832,13 @@
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E35" s="17" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>3144</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>3145</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.95" customHeight="1">
@@ -38844,10 +38850,10 @@
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="F36" s="4"/>
     </row>
@@ -38860,13 +38866,13 @@
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E37" s="17" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>3147</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>3148</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.95" customHeight="1">
@@ -38878,13 +38884,13 @@
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E38" s="17" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>3149</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>3150</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.95" customHeight="1">
@@ -38896,13 +38902,13 @@
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E39" s="17" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>3151</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.95" customHeight="1">
@@ -38914,13 +38920,13 @@
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E40" s="17" t="s">
+        <v>3152</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>3153</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>3154</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.95" customHeight="1">
@@ -38934,10 +38940,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="F41" s="17"/>
     </row>
@@ -38950,13 +38956,13 @@
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E42" s="17" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>3156</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>3157</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.95" customHeight="1">
@@ -38968,13 +38974,13 @@
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E43" s="17" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>3158</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.95" customHeight="1">
@@ -38986,13 +38992,13 @@
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E44" s="17" t="s">
+        <v>3159</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>3160</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>3161</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.95" customHeight="1">
@@ -39004,13 +39010,13 @@
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="16" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="E45" s="17" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>3162</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>3163</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.95" customHeight="1">
@@ -39022,13 +39028,13 @@
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E46" s="17" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>3164</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>3165</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.95" customHeight="1">
@@ -39040,13 +39046,13 @@
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E47" s="17" t="s">
+        <v>3165</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>3166</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.95" customHeight="1">
@@ -39058,10 +39064,10 @@
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="F48" s="17"/>
     </row>
@@ -39074,13 +39080,13 @@
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="16" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>3169</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="F49" s="17" t="s">
         <v>3170</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>3171</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.95" customHeight="1">
@@ -39094,13 +39100,13 @@
         <v>1</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E50" s="17" t="s">
+        <v>3171</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>3172</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>3173</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.95" customHeight="1">
@@ -39114,13 +39120,13 @@
         <v>1</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E51" s="17" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>3174</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.95" customHeight="1">
@@ -39132,13 +39138,13 @@
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E52" s="17" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>3176</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>3177</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.95" customHeight="1">
@@ -39150,10 +39156,10 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="F53" s="17"/>
     </row>
@@ -39166,13 +39172,13 @@
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E54" s="17" t="s">
+        <v>3178</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>3179</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>3180</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.95" customHeight="1">
@@ -39184,13 +39190,13 @@
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.95" customHeight="1">
@@ -39202,13 +39208,13 @@
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.95" customHeight="1">
@@ -39220,10 +39226,10 @@
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="F57" s="17"/>
     </row>
@@ -39238,10 +39244,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="F58" s="17"/>
     </row>
@@ -39256,13 +39262,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E59" s="17" t="s">
+        <v>3184</v>
+      </c>
+      <c r="F59" s="17" t="s">
         <v>3185</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>3186</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.95" customHeight="1">
@@ -39274,10 +39280,10 @@
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="F60" s="4"/>
     </row>
@@ -39290,10 +39296,10 @@
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="F61" s="17"/>
     </row>
@@ -39306,13 +39312,13 @@
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E62" s="17" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F62" s="17" t="s">
         <v>3189</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.95" customHeight="1">
@@ -39324,13 +39330,13 @@
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E63" s="17" t="s">
+        <v>3190</v>
+      </c>
+      <c r="F63" s="17" t="s">
         <v>3191</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>3192</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.95" customHeight="1">
@@ -39344,13 +39350,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E64" s="17" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>3193</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>3194</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.95" customHeight="1">
@@ -39362,10 +39368,10 @@
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="F65" s="17"/>
     </row>
@@ -39378,13 +39384,13 @@
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E66" s="17" t="s">
+        <v>3195</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>3196</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.95" customHeight="1">
@@ -39396,13 +39402,13 @@
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E67" s="17" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F67" s="17" t="s">
         <v>3198</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>3199</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.95" customHeight="1">
@@ -39416,13 +39422,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.95" customHeight="1">
@@ -39434,13 +39440,13 @@
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E69" s="17" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F69" s="17" t="s">
         <v>3201</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>3202</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.95" customHeight="1">
@@ -39452,13 +39458,13 @@
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="16" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E70" s="17" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>3203</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1">
@@ -39470,13 +39476,13 @@
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E71" s="17" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F71" s="17" t="s">
         <v>3205</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>3206</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1">
@@ -39488,13 +39494,13 @@
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="16" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F72" s="17" t="s">
         <v>3207</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>3208</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.95" customHeight="1">
@@ -39506,13 +39512,13 @@
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E73" s="17" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F73" s="17" t="s">
         <v>3209</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>3210</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.95" customHeight="1">
@@ -39524,13 +39530,13 @@
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E74" s="17" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F74" s="17" t="s">
         <v>3211</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>3212</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.95" customHeight="1">
@@ -39542,13 +39548,13 @@
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E75" s="17" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F75" s="17" t="s">
         <v>3213</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>3214</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.95" customHeight="1">
@@ -39562,13 +39568,13 @@
         <v>1</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E76" s="17" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>3215</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.95" customHeight="1">
@@ -39580,10 +39586,10 @@
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="F77" s="17"/>
     </row>
@@ -39596,13 +39602,13 @@
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E78" s="17" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F78" s="17" t="s">
         <v>3218</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>3219</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.95" customHeight="1">
@@ -39614,13 +39620,13 @@
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.95" customHeight="1">
@@ -39632,13 +39638,13 @@
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="16" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="E80" s="17" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>3221</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>3222</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1">
@@ -39650,13 +39656,13 @@
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E81" s="17" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F81" s="17" t="s">
         <v>3223</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>3224</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.95" customHeight="1">
@@ -39668,13 +39674,13 @@
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E82" s="17" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F82" s="17" t="s">
         <v>3225</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>3226</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1">
@@ -39686,13 +39692,13 @@
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E83" s="17" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F83" s="17" t="s">
         <v>3227</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>3228</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1">
@@ -39704,13 +39710,13 @@
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E84" s="17" t="s">
+        <v>3228</v>
+      </c>
+      <c r="F84" s="17" t="s">
         <v>3229</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>3230</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1">
@@ -39722,13 +39728,13 @@
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E85" s="17" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F85" s="17" t="s">
         <v>3231</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>3232</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1">
@@ -39740,13 +39746,13 @@
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E86" s="17" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>3233</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>3234</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.95" customHeight="1">
@@ -39760,13 +39766,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E87" s="17" t="s">
+        <v>3234</v>
+      </c>
+      <c r="F87" s="17" t="s">
         <v>3235</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>3236</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1">
@@ -39778,13 +39784,13 @@
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E88" s="17" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F88" s="17" t="s">
         <v>3237</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>3238</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.95" customHeight="1">
@@ -39796,13 +39802,13 @@
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E89" s="17" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>3239</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>3240</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.95" customHeight="1">
@@ -39814,13 +39820,13 @@
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E90" s="17" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>3241</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>3242</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.95" customHeight="1">
@@ -39832,13 +39838,13 @@
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E91" s="17" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F91" s="17" t="s">
         <v>3243</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>3244</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.95" customHeight="1">
@@ -39850,13 +39856,13 @@
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.95" customHeight="1">
@@ -39870,13 +39876,13 @@
         <v>1</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E93" s="17" t="s">
+        <v>3245</v>
+      </c>
+      <c r="F93" s="17" t="s">
         <v>3246</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>3247</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.95" customHeight="1">
@@ -39888,13 +39894,13 @@
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E94" s="17" t="s">
+        <v>3247</v>
+      </c>
+      <c r="F94" s="17" t="s">
         <v>3248</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>3249</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.95" customHeight="1">
@@ -39906,13 +39912,13 @@
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E95" s="17" t="s">
+        <v>3249</v>
+      </c>
+      <c r="F95" s="17" t="s">
         <v>3250</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>3251</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.95" customHeight="1">
@@ -39924,10 +39930,10 @@
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="F96" s="4"/>
     </row>
@@ -39942,13 +39948,13 @@
         <v>1</v>
       </c>
       <c r="D97" s="16" t="s">
+        <v>3252</v>
+      </c>
+      <c r="E97" s="17" t="s">
         <v>3253</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="F97" s="17" t="s">
         <v>3254</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>3255</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.95" customHeight="1">
@@ -39960,13 +39966,13 @@
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="16" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E98" s="17" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F98" s="17" t="s">
         <v>3256</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>3257</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.95" customHeight="1">
@@ -39978,13 +39984,13 @@
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.95" customHeight="1">
@@ -39996,13 +40002,13 @@
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="16" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E100" s="17" t="s">
         <v>3259</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="F100" s="10" t="s">
         <v>3260</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>3261</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.95" customHeight="1">
@@ -40016,13 +40022,13 @@
         <v>1</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E101" s="17" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F101" s="17" t="s">
         <v>3262</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>3263</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.95" customHeight="1">
@@ -40034,13 +40040,13 @@
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E102" s="17" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F102" s="17" t="s">
         <v>3264</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>3265</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.95" customHeight="1">
@@ -40052,13 +40058,13 @@
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E103" s="17" t="s">
+        <v>3265</v>
+      </c>
+      <c r="F103" s="17" t="s">
         <v>3266</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>3267</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.95" customHeight="1">
@@ -40070,13 +40076,13 @@
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E104" s="17" t="s">
+        <v>3267</v>
+      </c>
+      <c r="F104" s="17" t="s">
         <v>3268</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>3269</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.95" customHeight="1">
@@ -40088,13 +40094,13 @@
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E105" s="17" t="s">
+        <v>3269</v>
+      </c>
+      <c r="F105" s="17" t="s">
         <v>3270</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>3271</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.95" customHeight="1">
@@ -40106,13 +40112,13 @@
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E106" s="17" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>3272</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>3273</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.95" customHeight="1">
@@ -40124,10 +40130,10 @@
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="F107" s="17"/>
     </row>
@@ -40140,13 +40146,13 @@
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E108" s="17" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F108" s="17" t="s">
         <v>3275</v>
-      </c>
-      <c r="F108" s="17" t="s">
-        <v>3276</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.95" customHeight="1">
@@ -40158,13 +40164,13 @@
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E109" s="17" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F109" s="17" t="s">
         <v>3277</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>3278</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.95" customHeight="1">
@@ -40176,13 +40182,13 @@
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E110" s="17" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F110" s="10" t="s">
         <v>3279</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>3280</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.95" customHeight="1">
@@ -40194,13 +40200,13 @@
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E111" s="17" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F111" s="17" t="s">
         <v>3281</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>3282</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.95" customHeight="1">
@@ -40214,10 +40220,10 @@
         <v>1</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="F112" s="17"/>
     </row>
@@ -40230,13 +40236,13 @@
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="16" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E113" s="17" t="s">
         <v>3284</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="F113" s="17" t="s">
         <v>3285</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>3286</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.95" customHeight="1">
@@ -40248,13 +40254,13 @@
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.95" customHeight="1">
@@ -40266,13 +40272,13 @@
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E115" s="17" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F115" s="17" t="s">
         <v>3288</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>3289</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.95" customHeight="1">
@@ -40284,13 +40290,13 @@
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E116" s="17" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>3290</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>3291</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.95" customHeight="1">
@@ -40302,13 +40308,13 @@
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E117" s="17" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F117" s="17" t="s">
         <v>3292</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>3293</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.95" customHeight="1">
@@ -40322,10 +40328,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="F118" s="17"/>
     </row>
@@ -40338,13 +40344,13 @@
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E119" s="17" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F119" s="17" t="s">
         <v>3295</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>3296</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.95" customHeight="1">
@@ -40356,13 +40362,13 @@
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E120" s="17" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F120" s="10" t="s">
         <v>3297</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>3298</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.95" customHeight="1">
@@ -40374,13 +40380,13 @@
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E121" s="17" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F121" s="17" t="s">
         <v>3299</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>3300</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.95" customHeight="1">
@@ -40392,13 +40398,13 @@
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.95" customHeight="1">
@@ -40410,13 +40416,13 @@
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.95" customHeight="1">
@@ -40428,13 +40434,13 @@
       </c>
       <c r="C124" s="15"/>
       <c r="D124" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.95" customHeight="1">
@@ -40446,13 +40452,13 @@
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.95" customHeight="1">
@@ -40464,13 +40470,13 @@
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="16" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.95" customHeight="1">
@@ -40484,13 +40490,13 @@
         <v>1</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.95" customHeight="1">
@@ -40504,13 +40510,13 @@
         <v>1</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.95" customHeight="1">
@@ -40522,13 +40528,13 @@
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E129" s="17" t="s">
+        <v>3301</v>
+      </c>
+      <c r="F129" s="17" t="s">
         <v>3302</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>3303</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.95" customHeight="1">
@@ -40540,13 +40546,13 @@
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E130" s="17" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F130" s="10" t="s">
         <v>3304</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>3305</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.95" customHeight="1">
@@ -40558,13 +40564,13 @@
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E131" s="17" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F131" s="17" t="s">
         <v>3306</v>
-      </c>
-      <c r="F131" s="17" t="s">
-        <v>3307</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.95" customHeight="1">
@@ -40576,13 +40582,13 @@
       </c>
       <c r="C132" s="15"/>
       <c r="D132" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.95" customHeight="1">
@@ -40594,10 +40600,10 @@
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="F133" s="17"/>
     </row>
@@ -40610,13 +40616,13 @@
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E134" s="17" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F134" s="17" t="s">
         <v>3310</v>
-      </c>
-      <c r="F134" s="17" t="s">
-        <v>3311</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.95" customHeight="1">
@@ -40628,13 +40634,13 @@
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="16" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E135" s="17" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F135" s="17" t="s">
         <v>3312</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>3313</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.95" customHeight="1">
@@ -40646,13 +40652,13 @@
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E136" s="17" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F136" s="10" t="s">
         <v>3314</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.95" customHeight="1">
@@ -40664,13 +40670,13 @@
       </c>
       <c r="C137" s="15"/>
       <c r="D137" s="16" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="E137" s="17" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F137" s="17" t="s">
         <v>3316</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>3317</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.95" customHeight="1">
@@ -40682,13 +40688,13 @@
       </c>
       <c r="C138" s="15"/>
       <c r="D138" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.95" customHeight="1">
@@ -40700,13 +40706,13 @@
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="16" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E139" s="17" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F139" s="17" t="s">
         <v>3319</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>3320</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.95" customHeight="1">
@@ -40718,13 +40724,13 @@
       </c>
       <c r="C140" s="15"/>
       <c r="D140" s="16" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E140" s="17" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F140" s="10" t="s">
         <v>3321</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>3322</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.95" customHeight="1">
@@ -40736,10 +40742,10 @@
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="F141" s="17"/>
     </row>
@@ -40752,10 +40758,10 @@
       </c>
       <c r="C142" s="15"/>
       <c r="D142" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="F142" s="17"/>
     </row>
@@ -40768,13 +40774,13 @@
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.95" customHeight="1">
@@ -40788,13 +40794,13 @@
         <v>1</v>
       </c>
       <c r="D144" s="16" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E144" s="17" t="s">
         <v>3325</v>
       </c>
-      <c r="E144" s="17" t="s">
+      <c r="F144" s="17" t="s">
         <v>3326</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>3327</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.95" customHeight="1">
@@ -40808,10 +40814,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="F145" s="17"/>
     </row>
@@ -40824,13 +40830,13 @@
       </c>
       <c r="C146" s="15"/>
       <c r="D146" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E146" s="17" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F146" s="10" t="s">
         <v>3329</v>
-      </c>
-      <c r="F146" s="10" t="s">
-        <v>3330</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.95" customHeight="1">
@@ -40842,13 +40848,13 @@
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E147" s="17" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F147" s="17" t="s">
         <v>3331</v>
-      </c>
-      <c r="F147" s="17" t="s">
-        <v>3332</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.95" customHeight="1">
@@ -40860,13 +40866,13 @@
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E148" s="17" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F148" s="17" t="s">
         <v>3333</v>
-      </c>
-      <c r="F148" s="17" t="s">
-        <v>3334</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.95" customHeight="1">
@@ -40878,13 +40884,13 @@
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E149" s="17" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F149" s="17" t="s">
         <v>3335</v>
-      </c>
-      <c r="F149" s="17" t="s">
-        <v>3336</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.95" customHeight="1">
@@ -40896,13 +40902,13 @@
       </c>
       <c r="C150" s="15"/>
       <c r="D150" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E150" s="17" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F150" s="10" t="s">
         <v>3337</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>3338</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15.95" customHeight="1">
@@ -40914,13 +40920,13 @@
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E151" s="17" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F151" s="17" t="s">
         <v>3339</v>
-      </c>
-      <c r="F151" s="17" t="s">
-        <v>3340</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15.95" customHeight="1">
@@ -40932,13 +40938,13 @@
       </c>
       <c r="C152" s="15"/>
       <c r="D152" s="16" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E152" s="17" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F152" s="17" t="s">
         <v>3341</v>
-      </c>
-      <c r="F152" s="17" t="s">
-        <v>3342</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.95" customHeight="1">
@@ -40950,13 +40956,13 @@
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="16" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E153" s="17" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F153" s="17" t="s">
         <v>3343</v>
-      </c>
-      <c r="F153" s="17" t="s">
-        <v>3344</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15.95" customHeight="1">
@@ -40968,10 +40974,10 @@
       </c>
       <c r="C154" s="15"/>
       <c r="D154" s="16" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="F154" s="17"/>
     </row>
@@ -40984,10 +40990,10 @@
       </c>
       <c r="C155" s="15"/>
       <c r="D155" s="16" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="F155" s="17"/>
     </row>
@@ -41002,13 +41008,13 @@
         <v>1</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E156" s="17" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F156" s="10" t="s">
         <v>3347</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>3348</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.95" customHeight="1">
@@ -41020,13 +41026,13 @@
       </c>
       <c r="C157" s="15"/>
       <c r="D157" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E157" s="17" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F157" s="17" t="s">
         <v>3349</v>
-      </c>
-      <c r="F157" s="17" t="s">
-        <v>3350</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.95" customHeight="1">
@@ -41038,10 +41044,10 @@
       </c>
       <c r="C158" s="15"/>
       <c r="D158" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="F158" s="17"/>
     </row>
@@ -41054,13 +41060,13 @@
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="16" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="E159" s="17" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F159" s="17" t="s">
         <v>3351</v>
-      </c>
-      <c r="F159" s="17" t="s">
-        <v>3352</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15.95" customHeight="1">
@@ -41072,10 +41078,10 @@
       </c>
       <c r="C160" s="15"/>
       <c r="D160" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="F160" s="4"/>
     </row>
@@ -41088,13 +41094,13 @@
       </c>
       <c r="C161" s="15"/>
       <c r="D161" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E161" s="17" t="s">
+        <v>3353</v>
+      </c>
+      <c r="F161" s="17" t="s">
         <v>3354</v>
-      </c>
-      <c r="F161" s="17" t="s">
-        <v>3355</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15.95" customHeight="1">
@@ -41106,13 +41112,13 @@
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="16" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E162" s="17" t="s">
+        <v>3355</v>
+      </c>
+      <c r="F162" s="17" t="s">
         <v>3356</v>
-      </c>
-      <c r="F162" s="17" t="s">
-        <v>3357</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15.95" customHeight="1">
@@ -41124,10 +41130,10 @@
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="16" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="F163" s="17"/>
     </row>
@@ -41140,10 +41146,10 @@
       </c>
       <c r="C164" s="15"/>
       <c r="D164" s="16" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E164" s="17" t="s">
         <v>3359</v>
-      </c>
-      <c r="E164" s="17" t="s">
-        <v>3360</v>
       </c>
       <c r="F164" s="17"/>
     </row>
@@ -41156,13 +41162,13 @@
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E165" s="17" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F165" s="17" t="s">
         <v>3361</v>
-      </c>
-      <c r="F165" s="17" t="s">
-        <v>3362</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15.95" customHeight="1">
@@ -41174,13 +41180,13 @@
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E166" s="17" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F166" s="10" t="s">
         <v>3363</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>3364</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15.95" customHeight="1">
@@ -41192,10 +41198,10 @@
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="16" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="F167" s="17"/>
     </row>
@@ -41208,10 +41214,10 @@
       </c>
       <c r="C168" s="15"/>
       <c r="D168" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="F168" s="17"/>
     </row>
@@ -41224,10 +41230,10 @@
       </c>
       <c r="C169" s="15"/>
       <c r="D169" s="16" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="F169" s="17"/>
     </row>
@@ -41242,13 +41248,13 @@
         <v>1</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E170" s="17" t="s">
+        <v>3367</v>
+      </c>
+      <c r="F170" s="10" t="s">
         <v>3368</v>
-      </c>
-      <c r="F170" s="10" t="s">
-        <v>3369</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.95" customHeight="1">
@@ -41262,10 +41268,10 @@
         <v>1</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="F171" s="17"/>
     </row>
@@ -41278,10 +41284,10 @@
       </c>
       <c r="C172" s="15"/>
       <c r="D172" s="16" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="F172" s="17"/>
     </row>
@@ -41294,13 +41300,13 @@
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E173" s="17" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F173" s="17" t="s">
         <v>3372</v>
-      </c>
-      <c r="F173" s="17" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15.95" customHeight="1">
@@ -41312,13 +41318,13 @@
       </c>
       <c r="C174" s="15"/>
       <c r="D174" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E174" s="17" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F174" s="17" t="s">
         <v>3372</v>
-      </c>
-      <c r="F174" s="17" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15.95" customHeight="1">
@@ -41330,13 +41336,13 @@
       </c>
       <c r="C175" s="15"/>
       <c r="D175" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E175" s="17" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F175" s="17" t="s">
         <v>3372</v>
-      </c>
-      <c r="F175" s="17" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15.95" customHeight="1">
@@ -41348,13 +41354,13 @@
       </c>
       <c r="C176" s="15"/>
       <c r="D176" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E176" s="17" t="s">
+        <v>3373</v>
+      </c>
+      <c r="F176" s="10" t="s">
         <v>3374</v>
-      </c>
-      <c r="F176" s="10" t="s">
-        <v>3375</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.95" customHeight="1">
@@ -41368,13 +41374,13 @@
         <v>1</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.95" customHeight="1">
@@ -41388,13 +41394,13 @@
         <v>1</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E178" s="17" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F178" s="17" t="s">
         <v>3377</v>
-      </c>
-      <c r="F178" s="17" t="s">
-        <v>3378</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.95" customHeight="1">
@@ -41406,13 +41412,13 @@
       </c>
       <c r="C179" s="15"/>
       <c r="D179" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E179" s="17" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F179" s="17" t="s">
         <v>3379</v>
-      </c>
-      <c r="F179" s="17" t="s">
-        <v>3380</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.95" customHeight="1">
@@ -41424,10 +41430,10 @@
       </c>
       <c r="C180" s="15"/>
       <c r="D180" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="F180" s="4"/>
     </row>
@@ -41440,13 +41446,13 @@
       </c>
       <c r="C181" s="15"/>
       <c r="D181" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E181" s="17" t="s">
+        <v>3381</v>
+      </c>
+      <c r="F181" s="17" t="s">
         <v>3382</v>
-      </c>
-      <c r="F181" s="17" t="s">
-        <v>3383</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15.95" customHeight="1">
@@ -41458,10 +41464,10 @@
       </c>
       <c r="C182" s="15"/>
       <c r="D182" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="F182" s="17"/>
     </row>
@@ -41474,10 +41480,10 @@
       </c>
       <c r="C183" s="15"/>
       <c r="D183" s="16" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="F183" s="17"/>
     </row>
@@ -41490,10 +41496,10 @@
       </c>
       <c r="C184" s="15"/>
       <c r="D184" s="16" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="F184" s="17"/>
     </row>
@@ -41508,10 +41514,10 @@
         <v>1</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="F185" s="17"/>
     </row>
@@ -41526,13 +41532,13 @@
         <v>1</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E186" s="17" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F186" s="10" t="s">
         <v>3388</v>
-      </c>
-      <c r="F186" s="10" t="s">
-        <v>3389</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15.95" customHeight="1">
@@ -41544,13 +41550,13 @@
       </c>
       <c r="C187" s="15"/>
       <c r="D187" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E187" s="17" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F187" s="17" t="s">
         <v>3390</v>
-      </c>
-      <c r="F187" s="17" t="s">
-        <v>3391</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15.95" customHeight="1">
@@ -41562,13 +41568,13 @@
       </c>
       <c r="C188" s="15"/>
       <c r="D188" s="16" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E188" s="17" t="s">
+        <v>3391</v>
+      </c>
+      <c r="F188" s="17" t="s">
         <v>3392</v>
-      </c>
-      <c r="F188" s="17" t="s">
-        <v>3393</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15.95" customHeight="1">
@@ -41580,13 +41586,13 @@
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="16" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E189" s="17" t="s">
+        <v>3393</v>
+      </c>
+      <c r="F189" s="17" t="s">
         <v>3394</v>
-      </c>
-      <c r="F189" s="17" t="s">
-        <v>3395</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15.95" customHeight="1">
@@ -41598,13 +41604,13 @@
       </c>
       <c r="C190" s="15"/>
       <c r="D190" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E190" s="17" t="s">
+        <v>3395</v>
+      </c>
+      <c r="F190" s="10" t="s">
         <v>3396</v>
-      </c>
-      <c r="F190" s="10" t="s">
-        <v>3397</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.95" customHeight="1">
@@ -41618,10 +41624,10 @@
         <v>1</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="F191" s="17"/>
     </row>
@@ -41636,13 +41642,13 @@
         <v>1</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15.95" customHeight="1">
@@ -41654,13 +41660,13 @@
       </c>
       <c r="C193" s="15"/>
       <c r="D193" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E193" s="17" t="s">
+        <v>3399</v>
+      </c>
+      <c r="F193" s="17" t="s">
         <v>3400</v>
-      </c>
-      <c r="F193" s="17" t="s">
-        <v>3401</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15.95" customHeight="1">
@@ -41672,10 +41678,10 @@
       </c>
       <c r="C194" s="15"/>
       <c r="D194" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="F194" s="17"/>
     </row>
@@ -41688,10 +41694,10 @@
       </c>
       <c r="C195" s="15"/>
       <c r="D195" s="16" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="F195" s="17"/>
     </row>
@@ -41704,10 +41710,10 @@
       </c>
       <c r="C196" s="15"/>
       <c r="D196" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="F196" s="4"/>
     </row>
@@ -41720,13 +41726,13 @@
       </c>
       <c r="C197" s="15"/>
       <c r="D197" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E197" s="17" t="s">
+        <v>3403</v>
+      </c>
+      <c r="F197" s="17" t="s">
         <v>3404</v>
-      </c>
-      <c r="F197" s="17" t="s">
-        <v>3405</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15.95" customHeight="1">
@@ -41738,13 +41744,13 @@
       </c>
       <c r="C198" s="15"/>
       <c r="D198" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E198" s="17" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F198" s="17" t="s">
         <v>3406</v>
-      </c>
-      <c r="F198" s="17" t="s">
-        <v>3407</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15.95" customHeight="1">
@@ -41756,13 +41762,13 @@
       </c>
       <c r="C199" s="15"/>
       <c r="D199" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E199" s="17" t="s">
+        <v>3407</v>
+      </c>
+      <c r="F199" s="17" t="s">
         <v>3408</v>
-      </c>
-      <c r="F199" s="17" t="s">
-        <v>3409</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15.95" customHeight="1">
@@ -41774,13 +41780,13 @@
       </c>
       <c r="C200" s="15"/>
       <c r="D200" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E200" s="17" t="s">
+        <v>3409</v>
+      </c>
+      <c r="F200" s="10" t="s">
         <v>3410</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>3411</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.95" customHeight="1">
@@ -41792,10 +41798,10 @@
       </c>
       <c r="C201" s="15"/>
       <c r="D201" s="16" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="F201" s="17"/>
     </row>
@@ -41808,13 +41814,13 @@
       </c>
       <c r="C202" s="15"/>
       <c r="D202" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E202" s="17" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F202" s="17" t="s">
         <v>3413</v>
-      </c>
-      <c r="F202" s="17" t="s">
-        <v>3414</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15.95" customHeight="1">
@@ -41826,13 +41832,13 @@
       </c>
       <c r="C203" s="15"/>
       <c r="D203" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E203" s="17" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F203" s="17" t="s">
         <v>3415</v>
-      </c>
-      <c r="F203" s="17" t="s">
-        <v>3416</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15.95" customHeight="1">
@@ -41844,13 +41850,13 @@
       </c>
       <c r="C204" s="15"/>
       <c r="D204" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E204" s="17" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F204" s="17" t="s">
         <v>3417</v>
-      </c>
-      <c r="F204" s="17" t="s">
-        <v>3418</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15.95" customHeight="1">
@@ -41862,13 +41868,13 @@
       </c>
       <c r="C205" s="15"/>
       <c r="D205" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="F205" s="17" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15.95" customHeight="1">
@@ -41880,13 +41886,13 @@
       </c>
       <c r="C206" s="15"/>
       <c r="D206" s="16" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E206" s="17" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F206" s="10" t="s">
         <v>3420</v>
-      </c>
-      <c r="F206" s="10" t="s">
-        <v>3421</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15.95" customHeight="1">
@@ -41898,10 +41904,10 @@
       </c>
       <c r="C207" s="15"/>
       <c r="D207" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="F207" s="17"/>
     </row>
@@ -41914,10 +41920,10 @@
       </c>
       <c r="C208" s="15"/>
       <c r="D208" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="F208" s="17"/>
     </row>
@@ -41930,13 +41936,13 @@
       </c>
       <c r="C209" s="15"/>
       <c r="D209" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E209" s="17" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F209" s="17" t="s">
         <v>3422</v>
-      </c>
-      <c r="F209" s="17" t="s">
-        <v>3423</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15.95" customHeight="1">
@@ -41948,13 +41954,13 @@
       </c>
       <c r="C210" s="15"/>
       <c r="D210" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E210" s="17" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F210" s="10" t="s">
         <v>3424</v>
-      </c>
-      <c r="F210" s="10" t="s">
-        <v>3425</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15.95" customHeight="1">
@@ -41966,13 +41972,13 @@
       </c>
       <c r="C211" s="15"/>
       <c r="D211" s="16" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E211" s="17" t="s">
+        <v>3424</v>
+      </c>
+      <c r="F211" s="17" t="s">
         <v>3425</v>
-      </c>
-      <c r="F211" s="17" t="s">
-        <v>3426</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15.95" customHeight="1">
@@ -41984,13 +41990,13 @@
       </c>
       <c r="C212" s="15"/>
       <c r="D212" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E212" s="17" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F212" s="17" t="s">
         <v>3427</v>
-      </c>
-      <c r="F212" s="17" t="s">
-        <v>3428</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15.95" customHeight="1">
@@ -42002,13 +42008,13 @@
       </c>
       <c r="C213" s="15"/>
       <c r="D213" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="F213" s="17" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.95" customHeight="1">
@@ -42020,10 +42026,10 @@
       </c>
       <c r="C214" s="15"/>
       <c r="D214" s="16" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="F214" s="17"/>
     </row>
@@ -42036,13 +42042,13 @@
       </c>
       <c r="C215" s="15"/>
       <c r="D215" s="16" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E215" s="17" t="s">
+        <v>3430</v>
+      </c>
+      <c r="F215" s="17" t="s">
         <v>3431</v>
-      </c>
-      <c r="F215" s="17" t="s">
-        <v>3432</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15.95" customHeight="1">
@@ -42054,10 +42060,10 @@
       </c>
       <c r="C216" s="15"/>
       <c r="D216" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="F216" s="4"/>
     </row>
@@ -42070,13 +42076,13 @@
       </c>
       <c r="C217" s="15"/>
       <c r="D217" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E217" s="17" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F217" s="17" t="s">
         <v>3434</v>
-      </c>
-      <c r="F217" s="17" t="s">
-        <v>3435</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15.95" customHeight="1">
@@ -42090,10 +42096,10 @@
         <v>1</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="F218" s="17"/>
     </row>
@@ -42106,10 +42112,10 @@
       </c>
       <c r="C219" s="15"/>
       <c r="D219" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="F219" s="17"/>
     </row>
@@ -42122,10 +42128,10 @@
       </c>
       <c r="C220" s="15"/>
       <c r="D220" s="16" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="F220" s="4"/>
     </row>
@@ -42138,10 +42144,10 @@
       </c>
       <c r="C221" s="15"/>
       <c r="D221" s="16" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="F221" s="17"/>
     </row>
@@ -42154,13 +42160,13 @@
       </c>
       <c r="C222" s="15"/>
       <c r="D222" s="16" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="F222" s="17" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="15.95" customHeight="1">
@@ -42172,13 +42178,13 @@
       </c>
       <c r="C223" s="15"/>
       <c r="D223" s="16" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="F223" s="17" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15.95" customHeight="1">
@@ -42190,10 +42196,10 @@
       </c>
       <c r="C224" s="15"/>
       <c r="D224" s="16" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="F224" s="17"/>
     </row>
@@ -42206,10 +42212,10 @@
       </c>
       <c r="C225" s="15"/>
       <c r="D225" s="16" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="F225" s="17"/>
     </row>
@@ -42222,10 +42228,10 @@
       </c>
       <c r="C226" s="15"/>
       <c r="D226" s="16" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F226" s="4"/>
     </row>
@@ -42240,13 +42246,13 @@
         <v>1</v>
       </c>
       <c r="D227" s="16" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="E227" s="17" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F227" s="17" t="s">
         <v>3442</v>
-      </c>
-      <c r="F227" s="17" t="s">
-        <v>3443</v>
       </c>
     </row>
   </sheetData>
@@ -42284,16 +42290,16 @@
         <v>70</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>138</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
@@ -42301,19 +42307,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>3446</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>3447</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>3448</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>3449</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>3450</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
@@ -42327,10 +42333,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>3451</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3452</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
@@ -42348,10 +42354,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>3453</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3454</v>
       </c>
       <c r="F4" s="13">
         <v>2</v>
@@ -42369,10 +42375,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>3455</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>3456</v>
       </c>
       <c r="F5" s="13">
         <v>3</v>
@@ -42389,10 +42395,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>3457</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>3458</v>
       </c>
       <c r="F6" s="13">
         <v>2</v>
@@ -42410,10 +42416,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>3459</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>3460</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -42431,10 +42437,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -42451,10 +42457,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>3462</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>3463</v>
       </c>
       <c r="F9" s="13">
         <v>2</v>
@@ -42472,10 +42478,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>3464</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>3465</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -42493,10 +42499,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>3466</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>3467</v>
       </c>
       <c r="F11" s="13">
         <v>3</v>
@@ -42513,10 +42519,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>3468</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>3469</v>
       </c>
       <c r="F12" s="13">
         <v>2</v>
@@ -42534,10 +42540,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="F13" s="13">
         <v>3</v>
@@ -42555,10 +42561,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>3471</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>3472</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
@@ -42575,10 +42581,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>3473</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>3474</v>
       </c>
       <c r="F15" s="13">
         <v>3</v>
@@ -42596,10 +42602,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>3475</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>3476</v>
       </c>
       <c r="F16" s="13">
         <v>5</v>
@@ -42617,7 +42623,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>2608</v>
@@ -42637,10 +42643,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>3478</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>3479</v>
       </c>
       <c r="F18" s="13">
         <v>3</v>
@@ -42658,10 +42664,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>3480</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>3481</v>
       </c>
       <c r="F19" s="13">
         <v>5</v>
@@ -42679,10 +42685,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>3482</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>3483</v>
       </c>
       <c r="F20" s="13">
         <v>2</v>
@@ -42699,10 +42705,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>3484</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>3485</v>
       </c>
       <c r="F21" s="13">
         <v>-1</v>
@@ -42720,7 +42726,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>2608</v>
@@ -42741,10 +42747,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>3487</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>3488</v>
       </c>
       <c r="F23" s="13">
         <v>4</v>
@@ -42761,10 +42767,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>3489</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>3490</v>
       </c>
       <c r="F24" s="13">
         <v>2</v>
@@ -42782,10 +42788,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>3491</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>3492</v>
       </c>
       <c r="F25" s="13">
         <v>2</v>
@@ -42803,10 +42809,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>3493</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>3494</v>
       </c>
       <c r="F26" s="13">
         <v>6</v>
@@ -42823,10 +42829,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>3495</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>3496</v>
       </c>
       <c r="F27" s="13">
         <v>8</v>
@@ -42844,10 +42850,10 @@
         <v>9</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>3497</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>3498</v>
       </c>
       <c r="F28" s="13">
         <v>5</v>
@@ -42865,10 +42871,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>3499</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>3500</v>
       </c>
       <c r="F29" s="13">
         <v>3</v>
@@ -42885,10 +42891,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>3501</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>3502</v>
       </c>
       <c r="F30" s="13">
         <v>3</v>
@@ -42906,10 +42912,10 @@
         <v>10</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>3503</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>3504</v>
       </c>
       <c r="F31" s="13">
         <v>5</v>
@@ -42927,7 +42933,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>2608</v>
@@ -42947,10 +42953,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>3505</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>3506</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>3507</v>
       </c>
       <c r="F33" s="13">
         <v>3</v>
@@ -42968,10 +42974,10 @@
         <v>11</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>3508</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>3509</v>
       </c>
       <c r="F34" s="13">
         <v>6</v>
@@ -42989,10 +42995,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="F35" s="13">
         <v>9</v>
@@ -43009,10 +43015,10 @@
         <v>12</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>3511</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>3512</v>
       </c>
       <c r="F36" s="13">
         <v>3</v>
@@ -43030,10 +43036,10 @@
         <v>12</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>3513</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>3514</v>
       </c>
       <c r="F37" s="13">
         <v>6</v>
@@ -43051,10 +43057,10 @@
         <v>12</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>3515</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>3516</v>
       </c>
       <c r="F38" s="13">
         <v>9</v>
@@ -43071,10 +43077,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>3517</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>3518</v>
       </c>
       <c r="F39" s="13">
         <v>7</v>
@@ -43092,7 +43098,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>2608</v>
@@ -43113,10 +43119,10 @@
         <v>13</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>3520</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>3521</v>
       </c>
       <c r="F41" s="13">
         <v>4</v>
@@ -43133,10 +43139,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="F42" s="13">
         <v>4</v>
@@ -43154,7 +43160,7 @@
         <v>14</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>2608</v>
@@ -43175,10 +43181,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>3524</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>3525</v>
       </c>
       <c r="F44" s="13">
         <v>12</v>
@@ -43195,10 +43201,10 @@
         <v>15</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="F45" s="13">
         <v>14</v>
@@ -43216,10 +43222,10 @@
         <v>15</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>3527</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>3528</v>
       </c>
       <c r="F46" s="13">
         <v>9</v>
@@ -43237,10 +43243,10 @@
         <v>15</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>3528</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>3529</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>3530</v>
       </c>
       <c r="F47" s="13">
         <v>5</v>
@@ -43257,10 +43263,10 @@
         <v>16</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>3530</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>3531</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>3532</v>
       </c>
       <c r="F48" s="13">
         <v>12</v>
@@ -43278,10 +43284,10 @@
         <v>16</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>3533</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>3534</v>
       </c>
       <c r="F49" s="13">
         <v>18</v>
@@ -43299,10 +43305,10 @@
         <v>16</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>3535</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>3536</v>
       </c>
       <c r="F50" s="13">
         <v>6</v>
@@ -43319,10 +43325,10 @@
         <v>17</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>3536</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>3537</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>3538</v>
       </c>
       <c r="F51" s="13">
         <v>15</v>
@@ -43340,10 +43346,10 @@
         <v>17</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>3539</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>3540</v>
       </c>
       <c r="F52" s="13">
         <v>8</v>
@@ -43361,10 +43367,10 @@
         <v>17</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>3540</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>3541</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>3542</v>
       </c>
       <c r="F53" s="13">
         <v>15</v>
@@ -43381,10 +43387,10 @@
         <v>18</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>3542</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>3543</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>3544</v>
       </c>
       <c r="F54" s="13">
         <v>9</v>
@@ -43402,10 +43408,10 @@
         <v>18</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>3545</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>3546</v>
       </c>
       <c r="F55" s="13">
         <v>27</v>
@@ -43423,10 +43429,10 @@
         <v>18</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>3547</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>3548</v>
       </c>
       <c r="F56" s="13">
         <v>18</v>
@@ -43443,10 +43449,10 @@
         <v>19</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>3549</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>3550</v>
       </c>
       <c r="F57" s="13">
         <v>11</v>
@@ -43464,10 +43470,10 @@
         <v>19</v>
       </c>
       <c r="D58" s="10" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>3551</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>3552</v>
       </c>
       <c r="F58" s="13">
         <v>32</v>
@@ -43485,7 +43491,7 @@
         <v>19</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>2608</v>
@@ -43505,10 +43511,10 @@
         <v>20</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>3554</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>3555</v>
       </c>
       <c r="F60" s="13">
         <v>24</v>
@@ -43526,10 +43532,10 @@
         <v>20</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="F61" s="13">
         <v>12</v>
@@ -43547,10 +43553,10 @@
         <v>20</v>
       </c>
       <c r="D62" s="10" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>3557</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>3558</v>
       </c>
       <c r="F62" s="13">
         <v>12</v>
@@ -43567,10 +43573,10 @@
         <v>21</v>
       </c>
       <c r="D63" s="10" t="s">
+        <v>3558</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>3559</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>3560</v>
       </c>
       <c r="F63" s="13">
         <v>27</v>
@@ -43588,10 +43594,10 @@
         <v>21</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="F64" s="13">
         <v>41</v>
@@ -43609,7 +43615,7 @@
         <v>21</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>2608</v>
@@ -43629,10 +43635,10 @@
         <v>22</v>
       </c>
       <c r="D66" s="10" t="s">
+        <v>3562</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>3563</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>3564</v>
       </c>
       <c r="F66" s="13">
         <v>45</v>
@@ -43650,10 +43656,10 @@
         <v>22</v>
       </c>
       <c r="D67" s="10" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>3565</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>3566</v>
       </c>
       <c r="F67" s="13">
         <v>30</v>
@@ -43671,10 +43677,10 @@
         <v>22</v>
       </c>
       <c r="D68" s="10" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>3567</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>3568</v>
       </c>
       <c r="F68" s="13">
         <v>15</v>
@@ -43691,10 +43697,10 @@
         <v>23</v>
       </c>
       <c r="D69" s="10" t="s">
+        <v>3568</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>3569</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>3570</v>
       </c>
       <c r="F69" s="13">
         <v>17</v>
@@ -43712,10 +43718,10 @@
         <v>23</v>
       </c>
       <c r="D70" s="10" t="s">
+        <v>3570</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>3571</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>3572</v>
       </c>
       <c r="F70" s="13">
         <v>50</v>
@@ -43733,10 +43739,10 @@
         <v>23</v>
       </c>
       <c r="D71" s="10" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>3573</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>3574</v>
       </c>
       <c r="F71" s="13">
         <v>33</v>
@@ -43753,7 +43759,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>2608</v>
@@ -43774,10 +43780,10 @@
         <v>24</v>
       </c>
       <c r="D73" s="10" t="s">
+        <v>3575</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>3576</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>3577</v>
       </c>
       <c r="F73" s="13">
         <v>54</v>
@@ -43795,10 +43801,10 @@
         <v>24</v>
       </c>
       <c r="D74" s="10" t="s">
+        <v>3577</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>3578</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>3579</v>
       </c>
       <c r="F74" s="13">
         <v>36</v>
@@ -43815,10 +43821,10 @@
         <v>25</v>
       </c>
       <c r="D75" s="10" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>3580</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>3581</v>
       </c>
       <c r="F75" s="13">
         <v>20</v>
@@ -43836,10 +43842,10 @@
         <v>25</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="F76" s="13">
         <v>39</v>
@@ -43857,10 +43863,10 @@
         <v>25</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="F77" s="13">
         <v>59</v>
@@ -43877,10 +43883,10 @@
         <v>26</v>
       </c>
       <c r="D78" s="10" t="s">
+        <v>3583</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>3584</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>3585</v>
       </c>
       <c r="F78" s="13">
         <v>20</v>
@@ -43898,10 +43904,10 @@
         <v>26</v>
       </c>
       <c r="D79" s="10" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>3586</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>3587</v>
       </c>
       <c r="F79" s="13">
         <v>59</v>
@@ -43918,10 +43924,10 @@
         <v>27</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="F80" s="13">
         <v>59</v>
@@ -43939,10 +43945,10 @@
         <v>27</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="F81" s="13">
         <v>39</v>
@@ -43960,10 +43966,10 @@
         <v>27</v>
       </c>
       <c r="D82" s="10" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>3590</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>3591</v>
       </c>
       <c r="F82" s="13">
         <v>20</v>
@@ -43980,10 +43986,10 @@
         <v>28</v>
       </c>
       <c r="D83" s="10" t="s">
+        <v>3591</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>3592</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>3593</v>
       </c>
       <c r="F83" s="13">
         <v>20</v>
@@ -44001,10 +44007,10 @@
         <v>28</v>
       </c>
       <c r="D84" s="10" t="s">
+        <v>3593</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>3594</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>3595</v>
       </c>
       <c r="F84" s="13">
         <v>59</v>
@@ -44022,10 +44028,10 @@
         <v>28</v>
       </c>
       <c r="D85" s="10" t="s">
+        <v>3595</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>3596</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>3597</v>
       </c>
       <c r="F85" s="13">
         <v>39</v>
@@ -44042,10 +44048,10 @@
         <v>29</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="F86" s="13">
         <v>39</v>
@@ -44063,10 +44069,10 @@
         <v>29</v>
       </c>
       <c r="D87" s="10" t="s">
+        <v>3598</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>3599</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>3600</v>
       </c>
       <c r="F87" s="13">
         <v>20</v>
@@ -44084,10 +44090,10 @@
         <v>29</v>
       </c>
       <c r="D88" s="10" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E88" s="10" t="s">
         <v>3601</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>3602</v>
       </c>
       <c r="F88" s="13">
         <v>59</v>
@@ -44104,10 +44110,10 @@
         <v>30</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="F89" s="13">
         <v>59</v>
@@ -44125,7 +44131,7 @@
         <v>30</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>2608</v>
@@ -44146,10 +44152,10 @@
         <v>30</v>
       </c>
       <c r="D91" s="10" t="s">
+        <v>3604</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>3605</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>3606</v>
       </c>
       <c r="F91" s="13">
         <v>39</v>
@@ -44166,10 +44172,10 @@
         <v>31</v>
       </c>
       <c r="D92" s="10" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E92" s="10" t="s">
         <v>3607</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>3608</v>
       </c>
       <c r="F92" s="13">
         <v>40</v>
@@ -44187,10 +44193,10 @@
         <v>31</v>
       </c>
       <c r="D93" s="10" t="s">
+        <v>3608</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>3609</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>3610</v>
       </c>
       <c r="F93" s="13">
         <v>20</v>
@@ -44208,10 +44214,10 @@
         <v>31</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="F94" s="13">
         <v>60</v>
@@ -44228,10 +44234,10 @@
         <v>32</v>
       </c>
       <c r="D95" s="10" t="s">
+        <v>3611</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>3612</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>3613</v>
       </c>
       <c r="F95" s="13">
         <v>20</v>
@@ -44249,10 +44255,10 @@
         <v>32</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="F96" s="13">
         <v>40</v>
@@ -44270,10 +44276,10 @@
         <v>32</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="F97" s="13">
         <v>60</v>
@@ -44290,10 +44296,10 @@
         <v>33</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="F98" s="13">
         <v>60</v>
@@ -44311,10 +44317,10 @@
         <v>33</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="F99" s="13">
         <v>40</v>
@@ -44332,10 +44338,10 @@
         <v>33</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="F100" s="13">
         <v>40</v>
@@ -44352,10 +44358,10 @@
         <v>34</v>
       </c>
       <c r="D101" s="10" t="s">
+        <v>3617</v>
+      </c>
+      <c r="E101" s="10" t="s">
         <v>3618</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>3619</v>
       </c>
       <c r="F101" s="13">
         <v>40</v>
@@ -44373,10 +44379,10 @@
         <v>34</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="F102" s="13">
         <v>60</v>
@@ -44394,10 +44400,10 @@
         <v>34</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="F103" s="13">
         <v>40</v>
@@ -44414,10 +44420,10 @@
         <v>35</v>
       </c>
       <c r="D104" s="10" t="s">
+        <v>3621</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>3622</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>3623</v>
       </c>
       <c r="F104" s="13">
         <v>40</v>
@@ -44435,10 +44441,10 @@
         <v>35</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="F105" s="13">
         <v>60</v>
@@ -44455,7 +44461,7 @@
         <v>36</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>2608</v>
@@ -44476,10 +44482,10 @@
         <v>36</v>
       </c>
       <c r="D107" s="10" t="s">
+        <v>3625</v>
+      </c>
+      <c r="E107" s="10" t="s">
         <v>3626</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>3627</v>
       </c>
       <c r="F107" s="13">
         <v>65</v>
@@ -44497,10 +44503,10 @@
         <v>36</v>
       </c>
       <c r="D108" s="10" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E108" s="10" t="s">
         <v>3628</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>3629</v>
       </c>
       <c r="F108" s="13">
         <v>43</v>
@@ -44517,10 +44523,10 @@
         <v>37</v>
       </c>
       <c r="D109" s="10" t="s">
+        <v>3629</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>3630</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>3631</v>
       </c>
       <c r="F109" s="13">
         <v>69</v>
@@ -44538,10 +44544,10 @@
         <v>37</v>
       </c>
       <c r="D110" s="10" t="s">
+        <v>3631</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>3632</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>3633</v>
       </c>
       <c r="F110" s="13">
         <v>46</v>
@@ -44559,7 +44565,7 @@
         <v>37</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>2608</v>
@@ -44579,10 +44585,10 @@
         <v>38</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="F112" s="13">
         <v>49</v>
@@ -44600,10 +44606,10 @@
         <v>38</v>
       </c>
       <c r="D113" s="10" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>3636</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>3637</v>
       </c>
       <c r="F113" s="13">
         <v>49</v>
@@ -44621,10 +44627,10 @@
         <v>38</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="F114" s="13">
         <v>49</v>
@@ -44641,10 +44647,10 @@
         <v>39</v>
       </c>
       <c r="D115" s="10" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>3639</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>3640</v>
       </c>
       <c r="F115" s="13">
         <v>52</v>
@@ -44662,10 +44668,10 @@
         <v>39</v>
       </c>
       <c r="D116" s="10" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>3641</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>3642</v>
       </c>
       <c r="F116" s="13">
         <v>26</v>
@@ -44683,10 +44689,10 @@
         <v>39</v>
       </c>
       <c r="D117" s="10" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>3643</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>3644</v>
       </c>
       <c r="F117" s="13">
         <v>78</v>
@@ -44703,10 +44709,10 @@
         <v>40</v>
       </c>
       <c r="D118" s="10" t="s">
+        <v>3644</v>
+      </c>
+      <c r="E118" s="10" t="s">
         <v>3645</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>3646</v>
       </c>
       <c r="F118" s="13">
         <v>81</v>
@@ -44724,10 +44730,10 @@
         <v>40</v>
       </c>
       <c r="D119" s="10" t="s">
+        <v>3646</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>3647</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>3648</v>
       </c>
       <c r="F119" s="13">
         <v>27</v>
@@ -44745,10 +44751,10 @@
         <v>40</v>
       </c>
       <c r="D120" s="10" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>3649</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>3650</v>
       </c>
       <c r="F120" s="13">
         <v>54</v>
@@ -44765,10 +44771,10 @@
         <v>41</v>
       </c>
       <c r="D121" s="10" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>3651</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>3652</v>
       </c>
       <c r="F121" s="13">
         <v>29</v>
@@ -44786,10 +44792,10 @@
         <v>41</v>
       </c>
       <c r="D122" s="10" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>3653</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>3654</v>
       </c>
       <c r="F122" s="13">
         <v>29</v>
@@ -44807,10 +44813,10 @@
         <v>41</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="F123" s="13">
         <v>86</v>
@@ -44827,10 +44833,10 @@
         <v>42</v>
       </c>
       <c r="D124" s="10" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E124" s="10" t="s">
         <v>3656</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>3657</v>
       </c>
       <c r="F124" s="13">
         <v>90</v>
@@ -44848,10 +44854,10 @@
         <v>42</v>
       </c>
       <c r="D125" s="10" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>3658</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>3659</v>
       </c>
       <c r="F125" s="13">
         <v>90</v>
@@ -44869,7 +44875,7 @@
         <v>42</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>2608</v>
@@ -44889,10 +44895,10 @@
         <v>43</v>
       </c>
       <c r="D127" s="10" t="s">
+        <v>3660</v>
+      </c>
+      <c r="E127" s="10" t="s">
         <v>3661</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>3662</v>
       </c>
       <c r="F127" s="13">
         <v>32</v>
@@ -44910,10 +44916,10 @@
         <v>43</v>
       </c>
       <c r="D128" s="10" t="s">
+        <v>3662</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>3663</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>3664</v>
       </c>
       <c r="F128" s="13">
         <v>63</v>
@@ -44931,10 +44937,10 @@
         <v>43</v>
       </c>
       <c r="D129" s="10" t="s">
+        <v>3664</v>
+      </c>
+      <c r="E129" s="10" t="s">
         <v>3665</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>3666</v>
       </c>
       <c r="F129" s="13">
         <v>32</v>
@@ -44951,10 +44957,10 @@
         <v>44</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="F130" s="13">
         <v>33</v>
@@ -44972,10 +44978,10 @@
         <v>44</v>
       </c>
       <c r="D131" s="10" t="s">
+        <v>3667</v>
+      </c>
+      <c r="E131" s="10" t="s">
         <v>3668</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>3669</v>
       </c>
       <c r="F131" s="13">
         <v>66</v>
@@ -44993,10 +44999,10 @@
         <v>44</v>
       </c>
       <c r="D132" s="10" t="s">
+        <v>3669</v>
+      </c>
+      <c r="E132" s="10" t="s">
         <v>3670</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>3671</v>
       </c>
       <c r="F132" s="13">
         <v>99</v>
@@ -45013,10 +45019,10 @@
         <v>45</v>
       </c>
       <c r="D133" s="10" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E133" s="10" t="s">
         <v>3672</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>3673</v>
       </c>
       <c r="F133" s="13">
         <v>104</v>
@@ -45033,7 +45039,7 @@
         <v>45</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>2608</v>
@@ -45053,7 +45059,7 @@
         <v>45</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>2608</v>
@@ -45311,19 +45317,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>3676</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>3677</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3678</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3679</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3680</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.95" customHeight="1">
@@ -45331,19 +45337,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>3676</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>3677</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>3678</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>3679</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>3680</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.95" customHeight="1">
@@ -45351,19 +45357,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3681</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>3682</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>3683</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>3684</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3685</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.95" customHeight="1">
@@ -45371,19 +45377,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>3686</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>3687</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>3688</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1">
@@ -45391,19 +45397,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3689</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>3690</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>3691</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.95" customHeight="1">
@@ -45411,19 +45417,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>3692</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>3693</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>3694</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.95" customHeight="1">
@@ -45431,19 +45437,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>3695</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>3696</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>3697</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.95" customHeight="1">
@@ -45451,19 +45457,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>3698</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>3699</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>3700</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.95" customHeight="1">
@@ -45471,19 +45477,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>3701</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3696</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>3702</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.95" customHeight="1">
@@ -45491,19 +45497,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3692</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>3703</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>3693</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>3704</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>3705</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.95" customHeight="1">
@@ -45511,19 +45517,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>3705</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>3706</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>3707</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>3708</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.95" customHeight="1">
@@ -45531,19 +45537,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>3709</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>3710</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>3711</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.95" customHeight="1">
@@ -45551,19 +45557,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>3706</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>3712</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>3707</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>3713</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.95" customHeight="1">
@@ -45571,19 +45577,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>3714</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>3715</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>3716</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.95" customHeight="1">
@@ -45591,19 +45597,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>3716</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>3717</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>3718</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>3719</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.95" customHeight="1">
@@ -45611,19 +45617,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>3720</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>3721</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>3722</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.95" customHeight="1">
@@ -45631,19 +45637,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>3723</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>3724</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>3725</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.95" customHeight="1">
@@ -45651,19 +45657,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>3726</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>3727</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>3728</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.95" customHeight="1">
@@ -45671,19 +45677,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>3729</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>3730</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>3731</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.95" customHeight="1">
@@ -45691,19 +45697,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>3731</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>3732</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>3733</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>3734</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.95" customHeight="1">
@@ -45711,19 +45717,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>3698</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>3735</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>3699</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>3736</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.95" customHeight="1">
@@ -45731,19 +45737,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>3709</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>3737</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>3710</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>3738</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.95" customHeight="1">
@@ -45751,19 +45757,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>3739</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>3730</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>3740</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.95" customHeight="1">
@@ -45771,19 +45777,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>3740</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>3741</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>3742</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>3743</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.95" customHeight="1">
@@ -45791,19 +45797,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>3744</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>3745</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>3746</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.95" customHeight="1">
@@ -45811,19 +45817,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>3746</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>3744</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>3747</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>3745</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>3748</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.95" customHeight="1">
@@ -45831,19 +45837,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>3692</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>3749</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>3693</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>3750</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.95" customHeight="1">
@@ -45851,19 +45857,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>3751</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
+        <v>3683</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>3752</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>3684</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>3753</v>
       </c>
     </row>
   </sheetData>
@@ -45880,8 +45886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -45896,7 +45902,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -45907,7 +45913,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -45918,7 +45924,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
@@ -45929,7 +45935,7 @@
         <v>10011</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -45940,7 +45946,7 @@
         <v>10012</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -45951,7 +45957,7 @@
         <v>10013</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -45962,7 +45968,7 @@
         <v>10014</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -45973,7 +45979,7 @@
         <v>10015</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -45984,7 +45990,7 @@
         <v>10016</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -45995,7 +46001,7 @@
         <v>10017</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -46006,7 +46012,7 @@
         <v>10018</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
@@ -46017,7 +46023,7 @@
         <v>10019</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -46028,7 +46034,7 @@
         <v>10020</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -46039,7 +46045,7 @@
         <v>10021</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -46050,7 +46056,7 @@
         <v>10022</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -46061,7 +46067,7 @@
         <v>10023</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
@@ -46072,7 +46078,7 @@
         <v>10024</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
@@ -46083,7 +46089,7 @@
         <v>10025</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
@@ -46094,7 +46100,7 @@
         <v>10026</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
@@ -46105,7 +46111,7 @@
         <v>10027</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>

--- a/tools/data/mygameConfig.xlsx
+++ b/tools/data/mygameConfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yun_c\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\project\new\first\tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="goods" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="3776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="3836">
   <si>
     <t>ID</t>
   </si>
@@ -11203,9 +11203,6 @@
     <t>https://gm.zyuegame.com</t>
   </si>
   <si>
-    <t>/cygame/public/user/register</t>
-  </si>
-  <si>
     <t>username, password,_deviceid</t>
   </si>
   <si>
@@ -11215,213 +11212,132 @@
     <t>用户账号注册使用。</t>
   </si>
   <si>
-    <t>/cygame/public/user/login</t>
-  </si>
-  <si>
     <t>_username, _password,_deviceid</t>
   </si>
   <si>
     <t>用户账号登录，相关数据初始化。</t>
   </si>
   <si>
-    <t>/cygame/public/user/setname</t>
-  </si>
-  <si>
     <t>api_token,name</t>
   </si>
   <si>
     <t>给玩家命名</t>
   </si>
   <si>
-    <t>/cygame/public/sign/dosign</t>
-  </si>
-  <si>
     <t>api_token</t>
   </si>
   <si>
     <t>玩家签到与奖励。</t>
   </si>
   <si>
-    <t>/cygame/public/work/dowork</t>
-  </si>
-  <si>
     <t>api_token,workid</t>
   </si>
   <si>
     <t>玩家工作以及相关参数返回。</t>
   </si>
   <si>
-    <t>/cygame/public/work/donework</t>
-  </si>
-  <si>
     <t>api_token,worklogid</t>
   </si>
   <si>
     <t>工作完成。</t>
   </si>
   <si>
-    <t>/cygame/public/work/upwork</t>
-  </si>
-  <si>
     <t>升级工作。</t>
   </si>
   <si>
-    <t>/cygame/public/backpack/get</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
     <t>获取玩家背包。</t>
   </si>
   <si>
-    <t>/cygame/public/date/dodate</t>
-  </si>
-  <si>
     <t>api_token,dateid</t>
   </si>
   <si>
     <t>约会请求。</t>
   </si>
   <si>
-    <t>/cygame/public/date/donedate</t>
-  </si>
-  <si>
     <t>api_token,datelogid</t>
   </si>
   <si>
     <t>约会完成。</t>
   </si>
   <si>
-    <t>/cygame/public/date/update</t>
-  </si>
-  <si>
     <t>升级约会。</t>
   </si>
   <si>
-    <t>/cygame/public/goods/buy</t>
-  </si>
-  <si>
-    <t>api_token,type,_goodsid,_num,_goldid,_hotid,_workpkid</t>
-  </si>
-  <si>
     <t>购买道具。</t>
   </si>
   <si>
-    <t>/cygame/public/make/phone</t>
-  </si>
-  <si>
     <t>api_token,phoneid</t>
   </si>
   <si>
     <t>提交电话。</t>
   </si>
   <si>
-    <t>/cygame/public/make/thumb</t>
-  </si>
-  <si>
     <t>api_token,zoneid</t>
   </si>
   <si>
     <t>提交点赞。</t>
   </si>
   <si>
-    <t>/cygame/public/make/reply</t>
-  </si>
-  <si>
     <t>api_token,replyid</t>
   </si>
   <si>
     <t>提交回复。</t>
   </si>
   <si>
-    <t>/cygame/public/make/wechat</t>
-  </si>
-  <si>
     <t>api_token,wechatid</t>
   </si>
   <si>
     <t>提交微信。</t>
   </si>
   <si>
-    <t>/cygame/public/goods/touse</t>
-  </si>
-  <si>
     <t>api_token,goodsid,num</t>
   </si>
   <si>
     <t>使用道具。</t>
   </si>
   <si>
-    <t>/cygame/public/goods/buyright</t>
-  </si>
-  <si>
     <t>api_token,type</t>
   </si>
   <si>
     <t>购买一键完成</t>
   </si>
   <si>
-    <t>/cygame/public/work/rightdone</t>
-  </si>
-  <si>
     <t>工作一键完成，会扣除相应道具。</t>
   </si>
   <si>
-    <t>/cygame/public/date/rightdone</t>
-  </si>
-  <si>
     <t>约会一键完成，会扣除相应道具。</t>
   </si>
   <si>
-    <t>/cygame/public/goods/gifts</t>
-  </si>
-  <si>
     <t>提交送礼物。</t>
   </si>
   <si>
-    <t>/cygame/public/date/buytimes</t>
-  </si>
-  <si>
     <t>api_token,dateid,num</t>
   </si>
   <si>
     <t>购买约会次数。</t>
   </si>
   <si>
-    <t>/cygame/public/user/donevideo</t>
-  </si>
-  <si>
     <t>api_token,videoid</t>
   </si>
   <si>
     <t>观看视频完成。</t>
   </si>
   <si>
-    <t>/cygame/public/video/geturl</t>
-  </si>
-  <si>
     <t>获取视频url。</t>
   </si>
   <si>
-    <t>/cygame/public/make/fastwechat</t>
-  </si>
-  <si>
     <t>购买快速回复微信。</t>
   </si>
   <si>
-    <t>/cygame/public/user/guide</t>
-  </si>
-  <si>
     <t>api_token,guideid</t>
   </si>
   <si>
     <t>提交新手指引进度。</t>
   </si>
   <si>
-    <t>/cygame/public/sys/ping</t>
-  </si>
-  <si>
     <t>网络状态。</t>
   </si>
   <si>
@@ -11486,13 +11402,416 @@
   </si>
   <si>
     <t>相应功能未开启。</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/user/register</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/user/login</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/user/setname</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/sign/dosign</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/work/dowork</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/work/donework</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/work/upwork</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/backpack/get</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/date/dodate</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/date/donedate</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/date/update</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/goods/buy</t>
+  </si>
+  <si>
+    <t>api_token,type,_goodsid,_num,_goldid,_hotid,_workpkid,_receipt</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/make/phone</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/make/thumb</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/make/reply</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/make/wechat</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/goods/touse</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/goods/buyright</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/work/rightdone</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/date/rightdone</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/goods/gifts</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/date/buytimes</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/user/donevideo</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/video/geturl</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/make/fastwechat</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/user/guide</t>
+  </si>
+  <si>
+    <t>/cygame-ios1/public/sys/ping</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID1</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qyny.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qyny.2</t>
+  </si>
+  <si>
+    <t>com.qyny.3</t>
+  </si>
+  <si>
+    <t>com.qyny.4</t>
+  </si>
+  <si>
+    <t>com.qyny.5</t>
+  </si>
+  <si>
+    <t>com.qyny.6</t>
+  </si>
+  <si>
+    <t>IOS_ID1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID2</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS_ID2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mmny.1</t>
+  </si>
+  <si>
+    <t>com.mmny.2</t>
+  </si>
+  <si>
+    <t>com.mmny.3</t>
+  </si>
+  <si>
+    <t>com.mmny.4</t>
+  </si>
+  <si>
+    <t>com.mmny.5</t>
+  </si>
+  <si>
+    <t>com.mmny.6</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID3</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS_ID3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.snpy.1</t>
+  </si>
+  <si>
+    <t>com.snpy.2</t>
+  </si>
+  <si>
+    <t>com.snpy.3</t>
+  </si>
+  <si>
+    <t>com.snpy.4</t>
+  </si>
+  <si>
+    <t>com.snpy.5</t>
+  </si>
+  <si>
+    <t>com.snpy.6</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID2</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID3</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.snpy.7</t>
+  </si>
+  <si>
+    <t>com.snpy.8</t>
+  </si>
+  <si>
+    <t>com.snpy.9</t>
+  </si>
+  <si>
+    <t>com.snpy.10</t>
+  </si>
+  <si>
+    <t>com.snpy.11</t>
+  </si>
+  <si>
+    <t>com.snpy.12</t>
+  </si>
+  <si>
+    <t>com.snpy.13</t>
+  </si>
+  <si>
+    <t>com.snpy.14</t>
+  </si>
+  <si>
+    <t>com.snpy.15</t>
+  </si>
+  <si>
+    <t>com.snpy.16</t>
+  </si>
+  <si>
+    <t>com.snpy.17</t>
+  </si>
+  <si>
+    <t>com.qyny.18</t>
+  </si>
+  <si>
+    <t>com.qyny.19</t>
+  </si>
+  <si>
+    <t>com.qyny.20</t>
+  </si>
+  <si>
+    <t>com.qyny.21</t>
+  </si>
+  <si>
+    <t>com.mmny.14</t>
+  </si>
+  <si>
+    <t>com.mmny.15</t>
+  </si>
+  <si>
+    <t>com.mmny.16</t>
+  </si>
+  <si>
+    <t>com.mmny.17</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID1</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS_ID1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS_ID2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID3</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS_ID3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID1</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID2</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS_ID3</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qyny.7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qyny.8</t>
+  </si>
+  <si>
+    <t>com.qyny.9</t>
+  </si>
+  <si>
+    <t>com.qyny.10</t>
+  </si>
+  <si>
+    <t>com.qyny.15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qyny.16</t>
+  </si>
+  <si>
+    <t>com.qyny.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -11605,8 +11924,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11677,6 +12016,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="23"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -12029,7 +12374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12383,6 +12728,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -44998,7 +45355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -45059,16 +45418,16 @@
         <v>3680</v>
       </c>
       <c r="C3" s="116" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D3" s="114" t="s">
         <v>3681</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="E3" s="114" t="s">
         <v>3682</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="F3" s="114" t="s">
         <v>3683</v>
-      </c>
-      <c r="F3" s="114" t="s">
-        <v>3684</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.95" customHeight="1">
@@ -45079,16 +45438,16 @@
         <v>3680</v>
       </c>
       <c r="C4" s="114" t="s">
+        <v>3749</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F4" s="116" t="s">
         <v>3685</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>3686</v>
-      </c>
-      <c r="E4" s="114" t="s">
-        <v>3683</v>
-      </c>
-      <c r="F4" s="116" t="s">
-        <v>3687</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1">
@@ -45099,16 +45458,16 @@
         <v>3680</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>3688</v>
+        <v>3750</v>
       </c>
       <c r="D5" s="114" t="s">
-        <v>3689</v>
+        <v>3686</v>
       </c>
       <c r="E5" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F5" s="114" t="s">
-        <v>3690</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.95" customHeight="1">
@@ -45119,16 +45478,16 @@
         <v>3680</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>3691</v>
+        <v>3751</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>3692</v>
+        <v>3688</v>
       </c>
       <c r="E6" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F6" s="114" t="s">
-        <v>3693</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.95" customHeight="1">
@@ -45139,16 +45498,16 @@
         <v>3680</v>
       </c>
       <c r="C7" s="114" t="s">
-        <v>3694</v>
+        <v>3752</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>3695</v>
+        <v>3690</v>
       </c>
       <c r="E7" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F7" s="114" t="s">
-        <v>3696</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.95" customHeight="1">
@@ -45159,16 +45518,16 @@
         <v>3680</v>
       </c>
       <c r="C8" s="114" t="s">
-        <v>3697</v>
+        <v>3753</v>
       </c>
       <c r="D8" s="114" t="s">
-        <v>3698</v>
+        <v>3692</v>
       </c>
       <c r="E8" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F8" s="114" t="s">
-        <v>3699</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.95" customHeight="1">
@@ -45179,16 +45538,16 @@
         <v>3680</v>
       </c>
       <c r="C9" s="114" t="s">
-        <v>3700</v>
+        <v>3754</v>
       </c>
       <c r="D9" s="114" t="s">
-        <v>3695</v>
+        <v>3690</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F9" s="114" t="s">
-        <v>3701</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.95" customHeight="1">
@@ -45199,16 +45558,16 @@
         <v>3680</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>3702</v>
+        <v>3755</v>
       </c>
       <c r="D10" s="114" t="s">
-        <v>3692</v>
+        <v>3688</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>3703</v>
+        <v>3695</v>
       </c>
       <c r="F10" s="114" t="s">
-        <v>3704</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.95" customHeight="1">
@@ -45219,16 +45578,16 @@
         <v>3680</v>
       </c>
       <c r="C11" s="114" t="s">
-        <v>3705</v>
+        <v>3756</v>
       </c>
       <c r="D11" s="114" t="s">
-        <v>3706</v>
+        <v>3697</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F11" s="114" t="s">
-        <v>3707</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.95" customHeight="1">
@@ -45239,16 +45598,16 @@
         <v>3680</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>3708</v>
+        <v>3757</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>3709</v>
+        <v>3699</v>
       </c>
       <c r="E12" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F12" s="114" t="s">
-        <v>3710</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.95" customHeight="1">
@@ -45259,16 +45618,16 @@
         <v>3680</v>
       </c>
       <c r="C13" s="114" t="s">
-        <v>3711</v>
+        <v>3758</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>3706</v>
+        <v>3697</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>3712</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.95" customHeight="1">
@@ -45279,16 +45638,16 @@
         <v>3680</v>
       </c>
       <c r="C14" s="114" t="s">
-        <v>3713</v>
+        <v>3759</v>
       </c>
       <c r="D14" s="114" t="s">
-        <v>3714</v>
+        <v>3760</v>
       </c>
       <c r="E14" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F14" s="114" t="s">
-        <v>3715</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.95" customHeight="1">
@@ -45299,16 +45658,16 @@
         <v>3680</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>3716</v>
+        <v>3761</v>
       </c>
       <c r="D15" s="114" t="s">
-        <v>3717</v>
+        <v>3703</v>
       </c>
       <c r="E15" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F15" s="114" t="s">
-        <v>3718</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.95" customHeight="1">
@@ -45319,16 +45678,16 @@
         <v>3680</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>3719</v>
+        <v>3762</v>
       </c>
       <c r="D16" s="114" t="s">
-        <v>3720</v>
+        <v>3705</v>
       </c>
       <c r="E16" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F16" s="114" t="s">
-        <v>3721</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.95" customHeight="1">
@@ -45339,16 +45698,16 @@
         <v>3680</v>
       </c>
       <c r="C17" s="114" t="s">
-        <v>3722</v>
+        <v>3763</v>
       </c>
       <c r="D17" s="114" t="s">
-        <v>3723</v>
+        <v>3707</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F17" s="114" t="s">
-        <v>3724</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.95" customHeight="1">
@@ -45359,16 +45718,16 @@
         <v>3680</v>
       </c>
       <c r="C18" s="114" t="s">
-        <v>3725</v>
+        <v>3764</v>
       </c>
       <c r="D18" s="114" t="s">
-        <v>3726</v>
+        <v>3709</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F18" s="114" t="s">
-        <v>3727</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.95" customHeight="1">
@@ -45379,16 +45738,16 @@
         <v>3680</v>
       </c>
       <c r="C19" s="114" t="s">
-        <v>3728</v>
+        <v>3765</v>
       </c>
       <c r="D19" s="114" t="s">
-        <v>3729</v>
+        <v>3711</v>
       </c>
       <c r="E19" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F19" s="114" t="s">
-        <v>3730</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.95" customHeight="1">
@@ -45399,16 +45758,16 @@
         <v>3680</v>
       </c>
       <c r="C20" s="114" t="s">
-        <v>3731</v>
+        <v>3766</v>
       </c>
       <c r="D20" s="114" t="s">
-        <v>3732</v>
+        <v>3713</v>
       </c>
       <c r="E20" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F20" s="114" t="s">
-        <v>3733</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.95" customHeight="1">
@@ -45419,16 +45778,16 @@
         <v>3680</v>
       </c>
       <c r="C21" s="114" t="s">
-        <v>3734</v>
+        <v>3767</v>
       </c>
       <c r="D21" s="114" t="s">
-        <v>3698</v>
+        <v>3692</v>
       </c>
       <c r="E21" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F21" s="114" t="s">
-        <v>3735</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.95" customHeight="1">
@@ -45439,16 +45798,16 @@
         <v>3680</v>
       </c>
       <c r="C22" s="114" t="s">
-        <v>3736</v>
+        <v>3768</v>
       </c>
       <c r="D22" s="114" t="s">
-        <v>3709</v>
+        <v>3699</v>
       </c>
       <c r="E22" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F22" s="114" t="s">
-        <v>3737</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.95" customHeight="1">
@@ -45459,16 +45818,16 @@
         <v>3680</v>
       </c>
       <c r="C23" s="114" t="s">
-        <v>3738</v>
+        <v>3769</v>
       </c>
       <c r="D23" s="114" t="s">
-        <v>3729</v>
+        <v>3711</v>
       </c>
       <c r="E23" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F23" s="114" t="s">
-        <v>3739</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.95" customHeight="1">
@@ -45479,16 +45838,16 @@
         <v>3680</v>
       </c>
       <c r="C24" s="114" t="s">
-        <v>3740</v>
+        <v>3770</v>
       </c>
       <c r="D24" s="114" t="s">
-        <v>3741</v>
+        <v>3718</v>
       </c>
       <c r="E24" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F24" s="114" t="s">
-        <v>3742</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.95" customHeight="1">
@@ -45499,16 +45858,16 @@
         <v>3680</v>
       </c>
       <c r="C25" s="114" t="s">
-        <v>3743</v>
+        <v>3771</v>
       </c>
       <c r="D25" s="114" t="s">
-        <v>3744</v>
+        <v>3720</v>
       </c>
       <c r="E25" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F25" s="114" t="s">
-        <v>3745</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.95" customHeight="1">
@@ -45519,16 +45878,16 @@
         <v>3680</v>
       </c>
       <c r="C26" s="114" t="s">
-        <v>3746</v>
+        <v>3772</v>
       </c>
       <c r="D26" s="114" t="s">
-        <v>3744</v>
+        <v>3720</v>
       </c>
       <c r="E26" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F26" s="114" t="s">
-        <v>3747</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.95" customHeight="1">
@@ -45539,16 +45898,16 @@
         <v>3680</v>
       </c>
       <c r="C27" s="114" t="s">
-        <v>3748</v>
+        <v>3773</v>
       </c>
       <c r="D27" s="114" t="s">
-        <v>3692</v>
+        <v>3688</v>
       </c>
       <c r="E27" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F27" s="114" t="s">
-        <v>3749</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.95" customHeight="1">
@@ -45559,16 +45918,16 @@
         <v>3680</v>
       </c>
       <c r="C28" s="114" t="s">
-        <v>3750</v>
+        <v>3774</v>
       </c>
       <c r="D28" s="114" t="s">
-        <v>3751</v>
+        <v>3724</v>
       </c>
       <c r="E28" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F28" s="114" t="s">
-        <v>3752</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.95" customHeight="1">
@@ -45579,16 +45938,16 @@
         <v>3680</v>
       </c>
       <c r="C29" s="114" t="s">
-        <v>3753</v>
+        <v>3775</v>
       </c>
       <c r="D29" s="114" t="s">
-        <v>3692</v>
+        <v>3688</v>
       </c>
       <c r="E29" s="114" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="F29" s="114" t="s">
-        <v>3754</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.95" customHeight="1">
@@ -45599,14 +45958,14 @@
         <v>3680</v>
       </c>
       <c r="C30" s="114" t="s">
-        <v>3755</v>
+        <v>3727</v>
       </c>
       <c r="D30" s="114"/>
       <c r="E30" s="114" t="s">
-        <v>3703</v>
+        <v>3695</v>
       </c>
       <c r="F30" s="114" t="s">
-        <v>3756</v>
+        <v>3728</v>
       </c>
     </row>
   </sheetData>
@@ -45637,7 +45996,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="118" t="s">
-        <v>3757</v>
+        <v>3729</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="20"/>
@@ -45648,7 +46007,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>3757</v>
+        <v>3729</v>
       </c>
       <c r="C2" s="119"/>
       <c r="D2" s="20"/>
@@ -45659,7 +46018,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>3758</v>
+        <v>3730</v>
       </c>
       <c r="C3" s="119"/>
       <c r="D3" s="20"/>
@@ -45670,7 +46029,7 @@
         <v>10011</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>3759</v>
+        <v>3731</v>
       </c>
       <c r="C4" s="119"/>
       <c r="D4" s="20"/>
@@ -45681,7 +46040,7 @@
         <v>10012</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>3760</v>
+        <v>3732</v>
       </c>
       <c r="C5" s="119"/>
       <c r="D5" s="20"/>
@@ -45692,7 +46051,7 @@
         <v>10013</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>3761</v>
+        <v>3733</v>
       </c>
       <c r="C6" s="119"/>
       <c r="D6" s="20"/>
@@ -45703,7 +46062,7 @@
         <v>10014</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>3762</v>
+        <v>3734</v>
       </c>
       <c r="C7" s="119"/>
       <c r="D7" s="20"/>
@@ -45714,7 +46073,7 @@
         <v>10015</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>3763</v>
+        <v>3735</v>
       </c>
       <c r="C8" s="119"/>
       <c r="D8" s="20"/>
@@ -45725,7 +46084,7 @@
         <v>10016</v>
       </c>
       <c r="B9" s="118" t="s">
-        <v>3764</v>
+        <v>3736</v>
       </c>
       <c r="C9" s="119"/>
       <c r="D9" s="20"/>
@@ -45736,7 +46095,7 @@
         <v>10017</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>3765</v>
+        <v>3737</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="20"/>
@@ -45747,7 +46106,7 @@
         <v>10018</v>
       </c>
       <c r="B11" s="118" t="s">
-        <v>3766</v>
+        <v>3738</v>
       </c>
       <c r="C11" s="119"/>
       <c r="D11" s="20"/>
@@ -45758,7 +46117,7 @@
         <v>10019</v>
       </c>
       <c r="B12" s="118" t="s">
-        <v>3767</v>
+        <v>3739</v>
       </c>
       <c r="C12" s="119"/>
       <c r="D12" s="20"/>
@@ -45769,7 +46128,7 @@
         <v>10020</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>3768</v>
+        <v>3740</v>
       </c>
       <c r="C13" s="119"/>
       <c r="D13" s="20"/>
@@ -45780,7 +46139,7 @@
         <v>10021</v>
       </c>
       <c r="B14" s="118" t="s">
-        <v>3769</v>
+        <v>3741</v>
       </c>
       <c r="C14" s="119"/>
       <c r="D14" s="20"/>
@@ -45791,7 +46150,7 @@
         <v>10022</v>
       </c>
       <c r="B15" s="121" t="s">
-        <v>3770</v>
+        <v>3742</v>
       </c>
       <c r="C15" s="119"/>
       <c r="D15" s="20"/>
@@ -45802,7 +46161,7 @@
         <v>10023</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>3771</v>
+        <v>3743</v>
       </c>
       <c r="C16" s="119"/>
       <c r="D16" s="20"/>
@@ -45813,7 +46172,7 @@
         <v>10024</v>
       </c>
       <c r="B17" s="121" t="s">
-        <v>3772</v>
+        <v>3744</v>
       </c>
       <c r="C17" s="119"/>
       <c r="D17" s="20"/>
@@ -45824,7 +46183,7 @@
         <v>10025</v>
       </c>
       <c r="B18" s="121" t="s">
-        <v>3773</v>
+        <v>3745</v>
       </c>
       <c r="C18" s="119"/>
       <c r="D18" s="20"/>
@@ -45835,7 +46194,7 @@
         <v>10026</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>3774</v>
+        <v>3746</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="20"/>
@@ -45846,7 +46205,7 @@
         <v>10027</v>
       </c>
       <c r="B20" s="121" t="s">
-        <v>3775</v>
+        <v>3747</v>
       </c>
       <c r="C20" s="119"/>
       <c r="D20" s="20"/>
@@ -45866,18 +46225,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="21" customWidth="1"/>
     <col min="2" max="3" width="11.125" style="21" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9" style="21" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="28" style="21" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -45890,9 +46253,17 @@
       <c r="D1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E1" s="122" t="s">
+        <v>3783</v>
+      </c>
+      <c r="F1" s="124" t="s">
+        <v>3784</v>
+      </c>
+      <c r="G1" s="124" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.95" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -45905,9 +46276,17 @@
       <c r="D2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E2" s="122" t="s">
+        <v>3776</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>3785</v>
+      </c>
+      <c r="G2" s="124" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.95" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -45920,9 +46299,17 @@
       <c r="D3" s="19">
         <v>0</v>
       </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E3" s="123" t="s">
+        <v>3777</v>
+      </c>
+      <c r="F3" s="123" t="s">
+        <v>3786</v>
+      </c>
+      <c r="G3" s="123" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.95" customHeight="1">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -45935,9 +46322,17 @@
       <c r="D4" s="19">
         <v>120</v>
       </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E4" s="123" t="s">
+        <v>3778</v>
+      </c>
+      <c r="F4" s="123" t="s">
+        <v>3787</v>
+      </c>
+      <c r="G4" s="123" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.95" customHeight="1">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -45950,9 +46345,17 @@
       <c r="D5" s="19">
         <v>450</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E5" s="123" t="s">
+        <v>3779</v>
+      </c>
+      <c r="F5" s="123" t="s">
+        <v>3788</v>
+      </c>
+      <c r="G5" s="123" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.95" customHeight="1">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -45965,9 +46368,17 @@
       <c r="D6" s="19">
         <v>1360</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E6" s="123" t="s">
+        <v>3780</v>
+      </c>
+      <c r="F6" s="123" t="s">
+        <v>3789</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.95" customHeight="1">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -45980,9 +46391,17 @@
       <c r="D7" s="19">
         <v>2450</v>
       </c>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E7" s="123" t="s">
+        <v>3781</v>
+      </c>
+      <c r="F7" s="123" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G7" s="123" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.95" customHeight="1">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -45995,16 +46414,24 @@
       <c r="D8" s="19">
         <v>5940</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+      <c r="E8" s="123" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>3791</v>
+      </c>
+      <c r="G8" s="123" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.95" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+    <row r="10" spans="1:7" ht="15.95" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -46023,10 +46450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" customHeight="1"/>
@@ -46044,7 +46471,7 @@
     <col min="11" max="256" width="8.875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.95" customHeight="1">
+    <row r="1" spans="1:13" ht="30.95" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -46075,8 +46502,17 @@
       <c r="J1" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="K1" s="124" t="s">
+        <v>3776</v>
+      </c>
+      <c r="L1" s="124" t="s">
+        <v>3800</v>
+      </c>
+      <c r="M1" s="124" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -46107,8 +46543,17 @@
       <c r="J2" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K2" s="124" t="s">
+        <v>3826</v>
+      </c>
+      <c r="L2" s="124" t="s">
+        <v>3827</v>
+      </c>
+      <c r="M2" s="124" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.95" customHeight="1">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -46131,8 +46576,17 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K3" s="123" t="s">
+        <v>3802</v>
+      </c>
+      <c r="L3" s="123" t="s">
+        <v>3829</v>
+      </c>
+      <c r="M3" s="123" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.95" customHeight="1">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -46155,8 +46609,17 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="K4" s="123" t="s">
+        <v>3803</v>
+      </c>
+      <c r="L4" s="125" t="s">
+        <v>3830</v>
+      </c>
+      <c r="M4" s="123" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="19">
         <v>3</v>
       </c>
@@ -46185,8 +46648,17 @@
       <c r="J5" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="K5" s="123" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L5" s="125" t="s">
+        <v>3831</v>
+      </c>
+      <c r="M5" s="123" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="19">
         <v>4</v>
       </c>
@@ -46215,8 +46687,17 @@
       <c r="J6" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="K6" s="123" t="s">
+        <v>3805</v>
+      </c>
+      <c r="L6" s="125" t="s">
+        <v>3832</v>
+      </c>
+      <c r="M6" s="123" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -46245,8 +46726,17 @@
       <c r="J7" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K7" s="123" t="s">
+        <v>3806</v>
+      </c>
+      <c r="L7" s="125" t="s">
+        <v>3833</v>
+      </c>
+      <c r="M7" s="123" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.95" customHeight="1">
       <c r="A8" s="19">
         <v>6</v>
       </c>
@@ -46275,8 +46765,17 @@
       <c r="J8" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K8" s="123" t="s">
+        <v>3807</v>
+      </c>
+      <c r="L8" s="125" t="s">
+        <v>3834</v>
+      </c>
+      <c r="M8" s="123" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.95" customHeight="1">
       <c r="A9" s="19">
         <v>7</v>
       </c>
@@ -46297,8 +46796,17 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K9" s="123" t="s">
+        <v>3808</v>
+      </c>
+      <c r="L9" s="125" t="s">
+        <v>3835</v>
+      </c>
+      <c r="M9" s="123" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.95" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -46309,6 +46817,16 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
+      <c r="K10" s="123"/>
+    </row>
+    <row r="11" spans="1:13" ht="12" customHeight="1">
+      <c r="K11" s="123"/>
+    </row>
+    <row r="12" spans="1:13" ht="12" customHeight="1">
+      <c r="K12" s="123"/>
+    </row>
+    <row r="13" spans="1:13" ht="12" customHeight="1">
+      <c r="K13" s="123"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -46324,7 +46842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" customHeight="1"/>
   <cols>
@@ -46338,10 +46858,13 @@
     <col min="8" max="8" width="15" style="26" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="26" customWidth="1"/>
     <col min="10" max="10" width="15" style="26" customWidth="1"/>
-    <col min="11" max="256" width="8.875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="26" customWidth="1"/>
+    <col min="14" max="256" width="8.875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -46372,8 +46895,17 @@
       <c r="J1" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="K1" s="124" t="s">
+        <v>3822</v>
+      </c>
+      <c r="L1" s="124" t="s">
+        <v>3823</v>
+      </c>
+      <c r="M1" s="124" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -46404,8 +46936,17 @@
       <c r="J2" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K2" s="124" t="s">
+        <v>3821</v>
+      </c>
+      <c r="L2" s="124" t="s">
+        <v>3784</v>
+      </c>
+      <c r="M2" s="124" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.95" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -46432,8 +46973,17 @@
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K3" s="125" t="s">
+        <v>3813</v>
+      </c>
+      <c r="L3" s="123" t="s">
+        <v>3817</v>
+      </c>
+      <c r="M3" s="123" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.95" customHeight="1">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -46460,8 +47010,17 @@
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K4" s="125" t="s">
+        <v>3814</v>
+      </c>
+      <c r="L4" s="123" t="s">
+        <v>3818</v>
+      </c>
+      <c r="M4" s="123" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.95" customHeight="1">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -46488,8 +47047,17 @@
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K5" s="125" t="s">
+        <v>3815</v>
+      </c>
+      <c r="L5" s="123" t="s">
+        <v>3819</v>
+      </c>
+      <c r="M5" s="123" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.95" customHeight="1">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -46516,8 +47084,17 @@
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1">
+      <c r="K6" s="125" t="s">
+        <v>3816</v>
+      </c>
+      <c r="L6" s="123" t="s">
+        <v>3820</v>
+      </c>
+      <c r="M6" s="123" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.95" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -46529,7 +47106,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1">
+    <row r="8" spans="1:13" ht="15.95" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -46541,7 +47118,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1">
+    <row r="9" spans="1:13" ht="15.95" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -46553,7 +47130,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1">
+    <row r="10" spans="1:13" ht="15.95" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>

--- a/tools/data/mygameConfig.xlsx
+++ b/tools/data/mygameConfig.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="3836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="3843">
   <si>
     <t>ID</t>
   </si>
@@ -11504,10 +11504,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>com.qyny.1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>com.qyny.2</t>
   </si>
   <si>
@@ -11680,9 +11676,6 @@
     <t>com.qyny.21</t>
   </si>
   <si>
-    <t>com.mmny.14</t>
-  </si>
-  <si>
     <t>com.mmny.15</t>
   </si>
   <si>
@@ -11784,27 +11777,56 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
+    <t>com.qyny.8</t>
+  </si>
+  <si>
+    <t>com.qyny.9</t>
+  </si>
+  <si>
+    <t>com.qyny.10</t>
+  </si>
+  <si>
+    <t>com.qyny.16</t>
+  </si>
+  <si>
+    <t>com.qyny.17</t>
+  </si>
+  <si>
+    <t>com.qyny.15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qyny.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>com.qyny.7</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>com.qyny.8</t>
-  </si>
-  <si>
-    <t>com.qyny.9</t>
-  </si>
-  <si>
-    <t>com.qyny.10</t>
-  </si>
-  <si>
-    <t>com.qyny.15</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.qyny.16</t>
-  </si>
-  <si>
-    <t>com.qyny.17</t>
+    <t>com.mmny.7</t>
+  </si>
+  <si>
+    <t>com.mmny.8</t>
+  </si>
+  <si>
+    <t>com.mmny.9</t>
+  </si>
+  <si>
+    <t>com.mmny.10</t>
+  </si>
+  <si>
+    <t>com.mmny.11</t>
+  </si>
+  <si>
+    <t>com.mmny.12</t>
+  </si>
+  <si>
+    <t>com.mmny.13</t>
+  </si>
+  <si>
+    <t>com.mmny.14</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -46226,7 +46248,7 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G3" sqref="G3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" customHeight="1"/>
@@ -46254,13 +46276,13 @@
         <v>45</v>
       </c>
       <c r="E1" s="122" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1" s="124" t="s">
         <v>3783</v>
       </c>
-      <c r="F1" s="124" t="s">
-        <v>3784</v>
-      </c>
       <c r="G1" s="124" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.95" customHeight="1">
@@ -46280,10 +46302,10 @@
         <v>3776</v>
       </c>
       <c r="F2" s="124" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="G2" s="124" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.95" customHeight="1">
@@ -46300,13 +46322,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="123" t="s">
-        <v>3777</v>
+        <v>3833</v>
       </c>
       <c r="F3" s="123" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="G3" s="123" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.95" customHeight="1">
@@ -46323,13 +46345,13 @@
         <v>120</v>
       </c>
       <c r="E4" s="123" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="F4" s="123" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="G4" s="123" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.95" customHeight="1">
@@ -46346,13 +46368,13 @@
         <v>450</v>
       </c>
       <c r="E5" s="123" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="F5" s="123" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="G5" s="123" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.95" customHeight="1">
@@ -46369,13 +46391,13 @@
         <v>1360</v>
       </c>
       <c r="E6" s="123" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="F6" s="123" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="G6" s="123" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.95" customHeight="1">
@@ -46392,13 +46414,13 @@
         <v>2450</v>
       </c>
       <c r="E7" s="123" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="F7" s="123" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="G7" s="123" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.95" customHeight="1">
@@ -46415,13 +46437,13 @@
         <v>5940</v>
       </c>
       <c r="E8" s="123" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="F8" s="123" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="G8" s="123" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.95" customHeight="1">
@@ -46453,7 +46475,7 @@
   <dimension ref="A1:IV13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M3" sqref="M3:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" customHeight="1"/>
@@ -46468,7 +46490,10 @@
     <col min="8" max="8" width="15" style="22" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="22" customWidth="1"/>
     <col min="10" max="10" width="15" style="22" customWidth="1"/>
-    <col min="11" max="256" width="8.875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="77.625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="38.5" style="22" customWidth="1"/>
+    <col min="13" max="13" width="48.625" style="22" customWidth="1"/>
+    <col min="14" max="256" width="8.875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.95" customHeight="1">
@@ -46506,10 +46531,10 @@
         <v>3776</v>
       </c>
       <c r="L1" s="124" t="s">
+        <v>3799</v>
+      </c>
+      <c r="M1" s="124" t="s">
         <v>3800</v>
-      </c>
-      <c r="M1" s="124" t="s">
-        <v>3801</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
@@ -46544,13 +46569,13 @@
         <v>42</v>
       </c>
       <c r="K2" s="124" t="s">
+        <v>3824</v>
+      </c>
+      <c r="L2" s="124" t="s">
+        <v>3825</v>
+      </c>
+      <c r="M2" s="124" t="s">
         <v>3826</v>
-      </c>
-      <c r="L2" s="124" t="s">
-        <v>3827</v>
-      </c>
-      <c r="M2" s="124" t="s">
-        <v>3828</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1">
@@ -46577,13 +46602,13 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="123" t="s">
-        <v>3802</v>
+        <v>3834</v>
       </c>
       <c r="L3" s="123" t="s">
-        <v>3829</v>
+        <v>3835</v>
       </c>
       <c r="M3" s="123" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1">
@@ -46609,14 +46634,14 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="123" t="s">
-        <v>3803</v>
-      </c>
-      <c r="L4" s="125" t="s">
-        <v>3830</v>
+      <c r="K4" s="125" t="s">
+        <v>3827</v>
+      </c>
+      <c r="L4" s="123" t="s">
+        <v>3836</v>
       </c>
       <c r="M4" s="123" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
@@ -46648,14 +46673,14 @@
       <c r="J5" s="18">
         <v>5</v>
       </c>
-      <c r="K5" s="123" t="s">
-        <v>3804</v>
-      </c>
-      <c r="L5" s="125" t="s">
-        <v>3831</v>
+      <c r="K5" s="125" t="s">
+        <v>3828</v>
+      </c>
+      <c r="L5" s="123" t="s">
+        <v>3837</v>
       </c>
       <c r="M5" s="123" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
@@ -46687,14 +46712,14 @@
       <c r="J6" s="18">
         <v>5</v>
       </c>
-      <c r="K6" s="123" t="s">
-        <v>3805</v>
-      </c>
-      <c r="L6" s="125" t="s">
-        <v>3832</v>
+      <c r="K6" s="125" t="s">
+        <v>3829</v>
+      </c>
+      <c r="L6" s="123" t="s">
+        <v>3838</v>
       </c>
       <c r="M6" s="123" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
@@ -46726,14 +46751,14 @@
       <c r="J7" s="18">
         <v>5</v>
       </c>
-      <c r="K7" s="123" t="s">
-        <v>3806</v>
-      </c>
-      <c r="L7" s="125" t="s">
-        <v>3833</v>
+      <c r="K7" s="125" t="s">
+        <v>3832</v>
+      </c>
+      <c r="L7" s="123" t="s">
+        <v>3839</v>
       </c>
       <c r="M7" s="123" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1">
@@ -46765,14 +46790,14 @@
       <c r="J8" s="18">
         <v>5</v>
       </c>
-      <c r="K8" s="123" t="s">
-        <v>3807</v>
-      </c>
-      <c r="L8" s="125" t="s">
-        <v>3834</v>
+      <c r="K8" s="125" t="s">
+        <v>3830</v>
+      </c>
+      <c r="L8" s="123" t="s">
+        <v>3840</v>
       </c>
       <c r="M8" s="123" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1">
@@ -46796,14 +46821,14 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="123" t="s">
-        <v>3808</v>
-      </c>
-      <c r="L9" s="125" t="s">
-        <v>3835</v>
+      <c r="K9" s="125" t="s">
+        <v>3831</v>
+      </c>
+      <c r="L9" s="123" t="s">
+        <v>3841</v>
       </c>
       <c r="M9" s="123" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1">
@@ -46843,7 +46868,7 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" customHeight="1"/>
@@ -46896,13 +46921,13 @@
         <v>37</v>
       </c>
       <c r="K1" s="124" t="s">
+        <v>3820</v>
+      </c>
+      <c r="L1" s="124" t="s">
+        <v>3821</v>
+      </c>
+      <c r="M1" s="124" t="s">
         <v>3822</v>
-      </c>
-      <c r="L1" s="124" t="s">
-        <v>3823</v>
-      </c>
-      <c r="M1" s="124" t="s">
-        <v>3824</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
@@ -46937,13 +46962,13 @@
         <v>42</v>
       </c>
       <c r="K2" s="124" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
       <c r="L2" s="124" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="M2" s="124" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1">
@@ -46974,13 +46999,13 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="125" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="L3" s="123" t="s">
-        <v>3817</v>
+        <v>3842</v>
       </c>
       <c r="M3" s="123" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1">
@@ -47011,13 +47036,13 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="125" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="L4" s="123" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
       <c r="M4" s="123" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.95" customHeight="1">
@@ -47048,13 +47073,13 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="125" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="L5" s="123" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
       <c r="M5" s="123" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1">
@@ -47085,13 +47110,13 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="125" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="L6" s="123" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="M6" s="123" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1">
